--- a/Analysis/Fig Data/fig2.xlsx
+++ b/Analysis/Fig Data/fig2.xlsx
@@ -1,73 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C2CE303C000962297CA6411B550949C5E2319C43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Country</t>
+    <t xml:space="preserve">Country</t>
   </si>
   <si>
-    <t>stage</t>
+    <t xml:space="preserve">stage</t>
   </si>
   <si>
-    <t>Month</t>
+    <t xml:space="preserve">Month</t>
   </si>
   <si>
-    <t>Week</t>
+    <t xml:space="preserve">Week</t>
   </si>
   <si>
-    <t>median</t>
+    <t xml:space="preserve">median</t>
   </si>
   <si>
-    <t>Q1</t>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
-    <t>Q3</t>
+    <t xml:space="preserve">Q3</t>
   </si>
   <si>
-    <t>AU</t>
+    <t xml:space="preserve">AU</t>
   </si>
   <si>
-    <t>2015 Jan. to 2019 Dec.</t>
+    <t xml:space="preserve">2015 Jan. to 2019 Dec.</t>
   </si>
   <si>
-    <t>2020 Jan. to 2023 Jun.</t>
+    <t xml:space="preserve">2020 Jan. to 2023 Jun.</t>
   </si>
   <si>
-    <t>2023 Jun. onwards</t>
+    <t xml:space="preserve">2023 Jun. onwards</t>
   </si>
   <si>
-    <t>CN</t>
+    <t xml:space="preserve">CN</t>
   </si>
   <si>
-    <t>UK</t>
+    <t xml:space="preserve">UK</t>
   </si>
   <si>
-    <t>US</t>
+    <t xml:space="preserve">US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -104,15 +97,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -394,14 +378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G349"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,6968 +408,7316 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="D2"/>
+      <c r="E2" t="n">
         <v>1364</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1315</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1487</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="D3"/>
+      <c r="E3" t="n">
         <v>1012</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>835</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1240</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="D4"/>
+      <c r="E4" t="n">
         <v>1053</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>935</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="D5"/>
+      <c r="E5" t="n">
         <v>843</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>793</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1199</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="D6"/>
+      <c r="E6" t="n">
         <v>1043</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>985</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>1325</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="D7"/>
+      <c r="E7" t="n">
         <v>950</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>841</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>1213</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="D8"/>
+      <c r="E8" t="n">
         <v>1055</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>959</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1250</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="n">
         <v>1171</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1097</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="n">
         <v>1207</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1034</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>1921</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="n">
         <v>1429</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>1020</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>1903</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="D12"/>
+      <c r="E12" t="n">
         <v>1827</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>1177</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>2039</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="E13">
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="n">
         <v>1535</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>1074</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>1636</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="D14"/>
+      <c r="E14" t="n">
         <v>43.5</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>40.75</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>252.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="D15"/>
+      <c r="E15" t="n">
         <v>48.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>40.75</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="D16"/>
+      <c r="E16" t="n">
         <v>50</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>46.25</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>210.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="D17"/>
+      <c r="E17" t="n">
         <v>45.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>37.75</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>128.75</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="D18"/>
+      <c r="E18" t="n">
         <v>64.5</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>48.75</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="D19"/>
+      <c r="E19" t="n">
         <v>74.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>51.5</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>117.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="D20"/>
+      <c r="E20" t="n">
         <v>42</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>40</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>84.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="E21">
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="n">
         <v>64</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>57.5</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="E22">
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="n">
         <v>38</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>38</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>44.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="E23">
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="n">
         <v>40</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>32</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>40.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>11</v>
       </c>
-      <c r="E24">
+      <c r="D24"/>
+      <c r="E24" t="n">
         <v>44</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>39.5</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="E25">
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="n">
         <v>36</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>33</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="D26"/>
+      <c r="E26" t="n">
         <v>819</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>819</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="D27"/>
+      <c r="E27" t="n">
         <v>817</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>817</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>817</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>7</v>
       </c>
-      <c r="E28">
+      <c r="D28"/>
+      <c r="E28" t="n">
         <v>95</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>95</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="E29">
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="n">
         <v>156</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>156</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="E30">
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="n">
         <v>270</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>270</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="E31">
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="n">
         <v>367</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>367</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>11</v>
       </c>
-      <c r="E32">
+      <c r="D32"/>
+      <c r="E32" t="n">
         <v>633</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>633</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>633</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>12</v>
-      </c>
-      <c r="E33">
+      <c r="C33" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="n">
         <v>585</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>585</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="D34"/>
+      <c r="E34" t="n">
         <v>413</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>332</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>649</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="D35"/>
+      <c r="E35" t="n">
         <v>488</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>384</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>743</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="D36"/>
+      <c r="E36" t="n">
         <v>748</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>527</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>1602</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="D37"/>
+      <c r="E37" t="n">
         <v>608</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>507</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>1758</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>5</v>
       </c>
-      <c r="E38">
+      <c r="D38"/>
+      <c r="E38" t="n">
         <v>861</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>573</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>1764</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>6</v>
       </c>
-      <c r="E39">
+      <c r="D39"/>
+      <c r="E39" t="n">
         <v>1051</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>723</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>1973</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="D40"/>
+      <c r="E40" t="n">
         <v>1224</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>877</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>2850</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="E41">
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="n">
         <v>1605</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>999</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>4134</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="E42">
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" t="n">
         <v>1257</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>763</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>2657</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="E43">
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" t="n">
         <v>869</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>466</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>1572</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>11</v>
       </c>
-      <c r="E44">
+      <c r="D44"/>
+      <c r="E44" t="n">
         <v>791</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>410</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>1365</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="E45">
+      <c r="C45" t="n">
+        <v>12</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" t="n">
         <v>627</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>466</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>1399</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>1</v>
       </c>
-      <c r="E46">
+      <c r="D46"/>
+      <c r="E46" t="n">
         <v>1012</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>713.5</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>1444.25</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>2</v>
       </c>
-      <c r="E47">
+      <c r="D47"/>
+      <c r="E47" t="n">
         <v>638</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>432.25</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>1197.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>3</v>
       </c>
-      <c r="E48">
+      <c r="D48"/>
+      <c r="E48" t="n">
         <v>847.5</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>670.75</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>1592.25</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>4</v>
       </c>
-      <c r="E49">
+      <c r="D49"/>
+      <c r="E49" t="n">
         <v>776.5</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>436.25</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>1659.25</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>5</v>
       </c>
-      <c r="E50">
+      <c r="D50"/>
+      <c r="E50" t="n">
         <v>880.5</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>389.5</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>1998.25</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>6</v>
       </c>
-      <c r="E51">
+      <c r="D51"/>
+      <c r="E51" t="n">
         <v>1015.5</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>429</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>2187.25</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>7</v>
       </c>
-      <c r="E52">
+      <c r="D52"/>
+      <c r="E52" t="n">
         <v>820</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>481</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>2527</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="E53">
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="n">
         <v>1227</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>684.5</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>3291</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="E54">
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="n">
         <v>1094</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>647.5</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>2471.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="E55">
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="n">
         <v>825</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>546</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>1709.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>11</v>
       </c>
-      <c r="E56">
+      <c r="D56"/>
+      <c r="E56" t="n">
         <v>1148</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>719.5</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>1654</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57">
-        <v>12</v>
-      </c>
-      <c r="E57">
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="n">
         <v>1293</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>793.5</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>1773.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>1</v>
       </c>
-      <c r="E58">
+      <c r="D58"/>
+      <c r="E58" t="n">
         <v>15275</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>15275</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>15275</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>2</v>
       </c>
-      <c r="E59">
+      <c r="D59"/>
+      <c r="E59" t="n">
         <v>17105</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>17105</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>17105</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>7</v>
       </c>
-      <c r="E60">
+      <c r="D60"/>
+      <c r="E60" t="n">
         <v>2767</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>2767</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>2767</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61">
-        <v>8</v>
-      </c>
-      <c r="E61">
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="n">
         <v>4793</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>4793</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>4793</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62">
-        <v>9</v>
-      </c>
-      <c r="E62">
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="n">
         <v>4517</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>4517</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>4517</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63">
-        <v>10</v>
-      </c>
-      <c r="E63">
+      <c r="C63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="n">
         <v>4430</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>4430</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>4430</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>11</v>
       </c>
-      <c r="E64">
+      <c r="D64"/>
+      <c r="E64" t="n">
         <v>6410</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>6410</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>6410</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65">
       <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="C65">
-        <v>12</v>
-      </c>
-      <c r="E65">
+      <c r="C65" t="n">
+        <v>12</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="n">
         <v>9126</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>9126</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>9126</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="D66">
+      <c r="C66"/>
+      <c r="D66" t="n">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>54</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>48</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
-      <c r="D67">
+      <c r="C67"/>
+      <c r="D67" t="n">
         <v>2</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>57</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>44</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="D68">
+      <c r="C68"/>
+      <c r="D68" t="n">
         <v>3</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>49</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>41</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="D69">
+      <c r="C69"/>
+      <c r="D69" t="n">
         <v>4</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>60</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>58</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="D70">
+      <c r="C70"/>
+      <c r="D70" t="n">
         <v>5</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>59</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>56</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="D71">
+      <c r="C71"/>
+      <c r="D71" t="n">
         <v>6</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>56</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>50</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="D72">
+      <c r="C72"/>
+      <c r="D72" t="n">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>65</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>52</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73">
       <c r="A73" t="s">
         <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="D73">
-        <v>8</v>
-      </c>
-      <c r="E73">
+      <c r="C73"/>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
         <v>56</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>33</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74">
       <c r="A74" t="s">
         <v>12</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="D74">
-        <v>9</v>
-      </c>
-      <c r="E74">
+      <c r="C74"/>
+      <c r="D74" t="n">
+        <v>9</v>
+      </c>
+      <c r="E74" t="n">
         <v>68</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>53</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75">
       <c r="A75" t="s">
         <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="E75">
+      <c r="C75"/>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
         <v>61</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>59</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76">
       <c r="A76" t="s">
         <v>12</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="D76">
+      <c r="C76"/>
+      <c r="D76" t="n">
         <v>11</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>69</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>47</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77">
       <c r="A77" t="s">
         <v>12</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="D77">
-        <v>12</v>
-      </c>
-      <c r="E77">
+      <c r="C77"/>
+      <c r="D77" t="n">
+        <v>12</v>
+      </c>
+      <c r="E77" t="n">
         <v>61</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>52</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78">
       <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="D78">
-        <v>13</v>
-      </c>
-      <c r="E78">
+      <c r="C78"/>
+      <c r="D78" t="n">
+        <v>13</v>
+      </c>
+      <c r="E78" t="n">
         <v>68</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>60</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79">
       <c r="A79" t="s">
         <v>12</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="D79">
+      <c r="C79"/>
+      <c r="D79" t="n">
         <v>14</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>54</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>40</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80">
       <c r="A80" t="s">
         <v>12</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="D80">
+      <c r="C80"/>
+      <c r="D80" t="n">
         <v>15</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>37</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>35</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81">
       <c r="A81" t="s">
         <v>12</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="D81">
+      <c r="C81"/>
+      <c r="D81" t="n">
         <v>16</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>56</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>52</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="D82">
+      <c r="C82"/>
+      <c r="D82" t="n">
         <v>17</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>51</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>51</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="D83">
+      <c r="C83"/>
+      <c r="D83" t="n">
         <v>18</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>57</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>46</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="D84">
+      <c r="C84"/>
+      <c r="D84" t="n">
         <v>19</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>54</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>44</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="D85">
+      <c r="C85"/>
+      <c r="D85" t="n">
         <v>20</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>85</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>48</v>
       </c>
-      <c r="G85">
+      <c r="G85" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="D86">
+      <c r="C86"/>
+      <c r="D86" t="n">
         <v>21</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>71</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>59</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87">
       <c r="A87" t="s">
         <v>12</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="D87">
+      <c r="C87"/>
+      <c r="D87" t="n">
         <v>22</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>51</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>32</v>
       </c>
-      <c r="G87">
+      <c r="G87" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="D88">
+      <c r="C88"/>
+      <c r="D88" t="n">
         <v>23</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>58</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>57</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="D89">
+      <c r="C89"/>
+      <c r="D89" t="n">
         <v>24</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>59</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>52</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="D90">
+      <c r="C90"/>
+      <c r="D90" t="n">
         <v>25</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>65</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>57</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91">
       <c r="A91" t="s">
         <v>12</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="D91">
+      <c r="C91"/>
+      <c r="D91" t="n">
         <v>26</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>51</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>48</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92">
       <c r="A92" t="s">
         <v>12</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="D92">
+      <c r="C92"/>
+      <c r="D92" t="n">
         <v>27</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>62</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>52</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93">
       <c r="A93" t="s">
         <v>12</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="D93">
+      <c r="C93"/>
+      <c r="D93" t="n">
         <v>28</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>65</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>52</v>
       </c>
-      <c r="G93">
+      <c r="G93" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
-      <c r="D94">
+      <c r="C94"/>
+      <c r="D94" t="n">
         <v>29</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>67</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>63</v>
       </c>
-      <c r="G94">
+      <c r="G94" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95">
       <c r="A95" t="s">
         <v>12</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="D95">
+      <c r="C95"/>
+      <c r="D95" t="n">
         <v>30</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>55</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>48</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96">
       <c r="A96" t="s">
         <v>12</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="D96">
+      <c r="C96"/>
+      <c r="D96" t="n">
         <v>31</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>67</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>51</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="D97">
+      <c r="C97"/>
+      <c r="D97" t="n">
         <v>32</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>78</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>54</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98">
       <c r="A98" t="s">
         <v>12</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="D98">
+      <c r="C98"/>
+      <c r="D98" t="n">
         <v>33</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>58</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>43</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99">
       <c r="A99" t="s">
         <v>12</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="D99">
+      <c r="C99"/>
+      <c r="D99" t="n">
         <v>34</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>61</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>54</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100">
       <c r="A100" t="s">
         <v>12</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="D100">
+      <c r="C100"/>
+      <c r="D100" t="n">
         <v>35</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>57</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>48</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101">
       <c r="A101" t="s">
         <v>12</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="D101">
+      <c r="C101"/>
+      <c r="D101" t="n">
         <v>36</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>66</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>44</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102">
       <c r="A102" t="s">
         <v>12</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="D102">
+      <c r="C102"/>
+      <c r="D102" t="n">
         <v>37</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>68</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>62</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103">
       <c r="A103" t="s">
         <v>12</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="D103">
+      <c r="C103"/>
+      <c r="D103" t="n">
         <v>38</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>89</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>65</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="D104">
+      <c r="C104"/>
+      <c r="D104" t="n">
         <v>39</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>82</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>74</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="D105">
+      <c r="C105"/>
+      <c r="D105" t="n">
         <v>40</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>83</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
         <v>79</v>
       </c>
-      <c r="G105">
+      <c r="G105" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106">
       <c r="A106" t="s">
         <v>12</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="D106">
+      <c r="C106"/>
+      <c r="D106" t="n">
         <v>41</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>75</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>74</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="D107">
+      <c r="C107"/>
+      <c r="D107" t="n">
         <v>42</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>78</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>76</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="D108">
+      <c r="C108"/>
+      <c r="D108" t="n">
         <v>43</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>70</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>62</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109">
       <c r="A109" t="s">
         <v>12</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="D109">
+      <c r="C109"/>
+      <c r="D109" t="n">
         <v>44</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>71</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>59</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="D110">
+      <c r="C110"/>
+      <c r="D110" t="n">
         <v>45</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>80</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>71</v>
       </c>
-      <c r="G110">
+      <c r="G110" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="D111">
+      <c r="C111"/>
+      <c r="D111" t="n">
         <v>46</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>82</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>73</v>
       </c>
-      <c r="G111">
+      <c r="G111" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112">
       <c r="A112" t="s">
         <v>12</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="D112">
+      <c r="C112"/>
+      <c r="D112" t="n">
         <v>47</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>78</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>66</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113">
       <c r="A113" t="s">
         <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="D113">
+      <c r="C113"/>
+      <c r="D113" t="n">
         <v>48</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>74</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>68</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114">
       <c r="A114" t="s">
         <v>12</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="D114">
+      <c r="C114"/>
+      <c r="D114" t="n">
         <v>49</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>71</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>56</v>
       </c>
-      <c r="G114">
+      <c r="G114" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="D115">
+      <c r="C115"/>
+      <c r="D115" t="n">
         <v>50</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>74</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>58</v>
       </c>
-      <c r="G115">
+      <c r="G115" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="D116">
+      <c r="C116"/>
+      <c r="D116" t="n">
         <v>51</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>79</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>49</v>
       </c>
-      <c r="G116">
+      <c r="G116" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="D117">
+      <c r="C117"/>
+      <c r="D117" t="n">
         <v>52</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>42</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>39</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118">
       <c r="A118" t="s">
         <v>12</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="D118">
+      <c r="C118"/>
+      <c r="D118" t="n">
         <v>1</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>9.5</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>7.5</v>
       </c>
-      <c r="G118">
+      <c r="G118" t="n">
         <v>28.75</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119">
       <c r="A119" t="s">
         <v>12</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="D119">
+      <c r="C119"/>
+      <c r="D119" t="n">
         <v>2</v>
       </c>
-      <c r="E119">
-        <v>10</v>
-      </c>
-      <c r="F119">
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
         <v>6.5</v>
       </c>
-      <c r="G119">
+      <c r="G119" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="D120">
+      <c r="C120"/>
+      <c r="D120" t="n">
         <v>3</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>6.5</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>4.75</v>
       </c>
-      <c r="G120">
+      <c r="G120" t="n">
         <v>26.5</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121">
       <c r="A121" t="s">
         <v>12</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
       </c>
-      <c r="D121">
+      <c r="C121"/>
+      <c r="D121" t="n">
         <v>4</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>11</v>
       </c>
-      <c r="F121">
-        <v>8</v>
-      </c>
-      <c r="G121">
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="n">
         <v>34.25</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122">
       <c r="A122" t="s">
         <v>12</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
       </c>
-      <c r="D122">
+      <c r="C122"/>
+      <c r="D122" t="n">
         <v>5</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>16.5</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>11.5</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123">
       <c r="A123" t="s">
         <v>12</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
       </c>
-      <c r="D123">
+      <c r="C123"/>
+      <c r="D123" t="n">
         <v>6</v>
       </c>
-      <c r="E123">
-        <v>13</v>
-      </c>
-      <c r="F123">
+      <c r="E123" t="n">
+        <v>13</v>
+      </c>
+      <c r="F123" t="n">
         <v>4.25</v>
       </c>
-      <c r="G123">
+      <c r="G123" t="n">
         <v>38.25</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124">
       <c r="A124" t="s">
         <v>12</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
       </c>
-      <c r="D124">
+      <c r="C124"/>
+      <c r="D124" t="n">
         <v>7</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>14.5</v>
       </c>
-      <c r="F124">
-        <v>12</v>
-      </c>
-      <c r="G124">
+      <c r="F124" t="n">
+        <v>12</v>
+      </c>
+      <c r="G124" t="n">
         <v>41.5</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125">
       <c r="A125" t="s">
         <v>12</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
       </c>
-      <c r="D125">
-        <v>8</v>
-      </c>
-      <c r="E125">
+      <c r="C125"/>
+      <c r="D125" t="n">
+        <v>8</v>
+      </c>
+      <c r="E125" t="n">
         <v>11</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>7.25</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>35.5</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126">
       <c r="A126" t="s">
         <v>12</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
       </c>
-      <c r="D126">
-        <v>9</v>
-      </c>
-      <c r="E126">
+      <c r="C126"/>
+      <c r="D126" t="n">
+        <v>9</v>
+      </c>
+      <c r="E126" t="n">
         <v>8.5</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>6</v>
       </c>
-      <c r="G126">
+      <c r="G126" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127">
       <c r="A127" t="s">
         <v>12</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="D127">
-        <v>10</v>
-      </c>
-      <c r="E127">
+      <c r="C127"/>
+      <c r="D127" t="n">
+        <v>10</v>
+      </c>
+      <c r="E127" t="n">
         <v>13.5</v>
       </c>
-      <c r="F127">
-        <v>10</v>
-      </c>
-      <c r="G127">
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128">
       <c r="A128" t="s">
         <v>12</v>
       </c>
       <c r="B128" t="s">
         <v>9</v>
       </c>
-      <c r="D128">
+      <c r="C128"/>
+      <c r="D128" t="n">
         <v>11</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>10.5</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>8.5</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129">
       <c r="A129" t="s">
         <v>12</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
       </c>
-      <c r="D129">
-        <v>12</v>
-      </c>
-      <c r="E129">
+      <c r="C129"/>
+      <c r="D129" t="n">
+        <v>12</v>
+      </c>
+      <c r="E129" t="n">
         <v>10.5</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>8.5</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>23.25</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" t="s">
         <v>9</v>
       </c>
-      <c r="D130">
-        <v>13</v>
-      </c>
-      <c r="E130">
+      <c r="C130"/>
+      <c r="D130" t="n">
+        <v>13</v>
+      </c>
+      <c r="E130" t="n">
         <v>15.5</v>
       </c>
-      <c r="F130">
-        <v>8</v>
-      </c>
-      <c r="G130">
+      <c r="F130" t="n">
+        <v>8</v>
+      </c>
+      <c r="G130" t="n">
         <v>24.25</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" t="s">
         <v>9</v>
       </c>
-      <c r="D131">
+      <c r="C131"/>
+      <c r="D131" t="n">
         <v>14</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>11</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>9.5</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>18.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" t="s">
         <v>9</v>
       </c>
-      <c r="D132">
+      <c r="C132"/>
+      <c r="D132" t="n">
         <v>15</v>
       </c>
-      <c r="E132">
-        <v>8</v>
-      </c>
-      <c r="F132">
+      <c r="E132" t="n">
+        <v>8</v>
+      </c>
+      <c r="F132" t="n">
         <v>6.75</v>
       </c>
-      <c r="G132">
+      <c r="G132" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133">
       <c r="A133" t="s">
         <v>12</v>
       </c>
       <c r="B133" t="s">
         <v>9</v>
       </c>
-      <c r="D133">
+      <c r="C133"/>
+      <c r="D133" t="n">
         <v>16</v>
       </c>
-      <c r="E133">
-        <v>9</v>
-      </c>
-      <c r="F133">
+      <c r="E133" t="n">
+        <v>9</v>
+      </c>
+      <c r="F133" t="n">
         <v>7</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="n">
         <v>12.75</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134">
       <c r="A134" t="s">
         <v>12</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="D134">
+      <c r="C134"/>
+      <c r="D134" t="n">
         <v>17</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>11.5</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>9.5</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>13.75</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135">
       <c r="A135" t="s">
         <v>12</v>
       </c>
       <c r="B135" t="s">
         <v>9</v>
       </c>
-      <c r="D135">
+      <c r="C135"/>
+      <c r="D135" t="n">
         <v>18</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>17.5</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>12.25</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>24.5</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136">
       <c r="A136" t="s">
         <v>12</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
       </c>
-      <c r="D136">
+      <c r="C136"/>
+      <c r="D136" t="n">
         <v>19</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>8.5</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>6.25</v>
       </c>
-      <c r="G136">
+      <c r="G136" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137">
       <c r="A137" t="s">
         <v>12</v>
       </c>
       <c r="B137" t="s">
         <v>9</v>
       </c>
-      <c r="D137">
+      <c r="C137"/>
+      <c r="D137" t="n">
         <v>20</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>14</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>11.5</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>17.25</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138">
       <c r="A138" t="s">
         <v>12</v>
       </c>
       <c r="B138" t="s">
         <v>9</v>
       </c>
-      <c r="D138">
+      <c r="C138"/>
+      <c r="D138" t="n">
         <v>21</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>14.5</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>12.25</v>
       </c>
-      <c r="G138">
+      <c r="G138" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139">
       <c r="A139" t="s">
         <v>12</v>
       </c>
       <c r="B139" t="s">
         <v>9</v>
       </c>
-      <c r="D139">
+      <c r="C139"/>
+      <c r="D139" t="n">
         <v>22</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>11</v>
       </c>
-      <c r="F139">
-        <v>8</v>
-      </c>
-      <c r="G139">
+      <c r="F139" t="n">
+        <v>8</v>
+      </c>
+      <c r="G139" t="n">
         <v>15.75</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140">
       <c r="A140" t="s">
         <v>12</v>
       </c>
       <c r="B140" t="s">
         <v>9</v>
       </c>
-      <c r="D140">
+      <c r="C140"/>
+      <c r="D140" t="n">
         <v>23</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>15.5</v>
       </c>
-      <c r="F140">
-        <v>9</v>
-      </c>
-      <c r="G140">
+      <c r="F140" t="n">
+        <v>9</v>
+      </c>
+      <c r="G140" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
-      <c r="D141">
+      <c r="C141"/>
+      <c r="D141" t="n">
         <v>24</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>12.5</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>3</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142">
       <c r="A142" t="s">
         <v>12</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
       </c>
-      <c r="D142">
+      <c r="C142"/>
+      <c r="D142" t="n">
         <v>25</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>16.5</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="n">
         <v>6</v>
       </c>
-      <c r="G142">
+      <c r="G142" t="n">
         <v>25.25</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
       <c r="B143" t="s">
         <v>9</v>
       </c>
-      <c r="D143">
+      <c r="C143"/>
+      <c r="D143" t="n">
         <v>26</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>2</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="n">
         <v>1</v>
       </c>
-      <c r="G143">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="G143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" t="s">
         <v>12</v>
       </c>
       <c r="B144" t="s">
         <v>9</v>
       </c>
-      <c r="D144">
+      <c r="C144"/>
+      <c r="D144" t="n">
         <v>27</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>4</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="n">
         <v>2.5</v>
       </c>
-      <c r="G144">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="G144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" t="s">
         <v>12</v>
       </c>
       <c r="B145" t="s">
         <v>9</v>
       </c>
-      <c r="D145">
+      <c r="C145"/>
+      <c r="D145" t="n">
         <v>28</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>5</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="n">
         <v>2.5</v>
       </c>
-      <c r="G145">
+      <c r="G145" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146">
       <c r="A146" t="s">
         <v>12</v>
       </c>
       <c r="B146" t="s">
         <v>9</v>
       </c>
-      <c r="D146">
+      <c r="C146"/>
+      <c r="D146" t="n">
         <v>29</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>5</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="n">
         <v>2.5</v>
       </c>
-      <c r="G146">
+      <c r="G146" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147">
       <c r="A147" t="s">
         <v>12</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
       </c>
-      <c r="D147">
+      <c r="C147"/>
+      <c r="D147" t="n">
         <v>30</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>5</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="n">
         <v>2.5</v>
       </c>
-      <c r="G147">
+      <c r="G147" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148">
       <c r="A148" t="s">
         <v>12</v>
       </c>
       <c r="B148" t="s">
         <v>9</v>
       </c>
-      <c r="D148">
+      <c r="C148"/>
+      <c r="D148" t="n">
         <v>31</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>1</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="n">
         <v>0.5</v>
       </c>
-      <c r="G148">
+      <c r="G148" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149">
       <c r="A149" t="s">
         <v>12</v>
       </c>
       <c r="B149" t="s">
         <v>9</v>
       </c>
-      <c r="D149">
+      <c r="C149"/>
+      <c r="D149" t="n">
         <v>32</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>3</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="n">
         <v>1.5</v>
       </c>
-      <c r="G149">
+      <c r="G149" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150">
       <c r="A150" t="s">
         <v>12</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
-      <c r="D150">
+      <c r="C150"/>
+      <c r="D150" t="n">
         <v>33</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>4</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="n">
         <v>2</v>
       </c>
-      <c r="G150">
+      <c r="G150" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151">
       <c r="A151" t="s">
         <v>12</v>
       </c>
       <c r="B151" t="s">
         <v>9</v>
       </c>
-      <c r="D151">
+      <c r="C151"/>
+      <c r="D151" t="n">
         <v>34</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>0</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G151">
+      <c r="G151" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152">
       <c r="A152" t="s">
         <v>12</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
       </c>
-      <c r="D152">
+      <c r="C152"/>
+      <c r="D152" t="n">
         <v>35</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>4</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="n">
         <v>3.5</v>
       </c>
-      <c r="G152">
+      <c r="G152" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153">
       <c r="A153" t="s">
         <v>12</v>
       </c>
       <c r="B153" t="s">
         <v>9</v>
       </c>
-      <c r="D153">
+      <c r="C153"/>
+      <c r="D153" t="n">
         <v>36</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>4</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="n">
         <v>2.5</v>
       </c>
-      <c r="G153">
+      <c r="G153" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154">
       <c r="A154" t="s">
         <v>12</v>
       </c>
       <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="D154">
+      <c r="C154"/>
+      <c r="D154" t="n">
         <v>37</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>5</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="n">
         <v>2.5</v>
       </c>
-      <c r="G154">
+      <c r="G154" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155">
       <c r="A155" t="s">
         <v>12</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="D155">
+      <c r="C155"/>
+      <c r="D155" t="n">
         <v>38</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>7</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="n">
         <v>6.5</v>
       </c>
-      <c r="G155">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="G155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156" t="s">
         <v>12</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
       </c>
-      <c r="D156">
+      <c r="C156"/>
+      <c r="D156" t="n">
         <v>39</v>
       </c>
-      <c r="E156">
-        <v>9</v>
-      </c>
-      <c r="F156">
+      <c r="E156" t="n">
+        <v>9</v>
+      </c>
+      <c r="F156" t="n">
         <v>6</v>
       </c>
-      <c r="G156">
+      <c r="G156" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157">
       <c r="A157" t="s">
         <v>12</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
       </c>
-      <c r="D157">
+      <c r="C157"/>
+      <c r="D157" t="n">
         <v>40</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>6</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="n">
         <v>4</v>
       </c>
-      <c r="G157">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="G157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
       </c>
-      <c r="D158">
+      <c r="C158"/>
+      <c r="D158" t="n">
         <v>41</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>14</v>
       </c>
-      <c r="F158">
-        <v>10</v>
-      </c>
-      <c r="G158">
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159">
       <c r="A159" t="s">
         <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>9</v>
       </c>
-      <c r="D159">
+      <c r="C159"/>
+      <c r="D159" t="n">
         <v>42</v>
       </c>
-      <c r="E159">
-        <v>8</v>
-      </c>
-      <c r="F159">
+      <c r="E159" t="n">
+        <v>8</v>
+      </c>
+      <c r="F159" t="n">
         <v>5.5</v>
       </c>
-      <c r="G159">
+      <c r="G159" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160">
       <c r="A160" t="s">
         <v>12</v>
       </c>
       <c r="B160" t="s">
         <v>9</v>
       </c>
-      <c r="D160">
+      <c r="C160"/>
+      <c r="D160" t="n">
         <v>43</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>19</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="n">
         <v>11</v>
       </c>
-      <c r="G160">
+      <c r="G160" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161">
       <c r="A161" t="s">
         <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>9</v>
       </c>
-      <c r="D161">
+      <c r="C161"/>
+      <c r="D161" t="n">
         <v>44</v>
       </c>
-      <c r="E161">
-        <v>13</v>
-      </c>
-      <c r="F161">
+      <c r="E161" t="n">
+        <v>13</v>
+      </c>
+      <c r="F161" t="n">
         <v>8.5</v>
       </c>
-      <c r="G161">
+      <c r="G161" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162">
       <c r="A162" t="s">
         <v>12</v>
       </c>
       <c r="B162" t="s">
         <v>9</v>
       </c>
-      <c r="D162">
+      <c r="C162"/>
+      <c r="D162" t="n">
         <v>45</v>
       </c>
-      <c r="E162">
-        <v>13</v>
-      </c>
-      <c r="F162">
+      <c r="E162" t="n">
+        <v>13</v>
+      </c>
+      <c r="F162" t="n">
         <v>10.5</v>
       </c>
-      <c r="G162">
+      <c r="G162" t="n">
         <v>15.5</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163">
       <c r="A163" t="s">
         <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>9</v>
       </c>
-      <c r="D163">
+      <c r="C163"/>
+      <c r="D163" t="n">
         <v>46</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>14</v>
       </c>
-      <c r="F163">
-        <v>8</v>
-      </c>
-      <c r="G163">
+      <c r="F163" t="n">
+        <v>8</v>
+      </c>
+      <c r="G163" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164">
       <c r="A164" t="s">
         <v>12</v>
       </c>
       <c r="B164" t="s">
         <v>9</v>
       </c>
-      <c r="D164">
+      <c r="C164"/>
+      <c r="D164" t="n">
         <v>47</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>15</v>
       </c>
-      <c r="F164">
-        <v>8</v>
-      </c>
-      <c r="G164">
+      <c r="F164" t="n">
+        <v>8</v>
+      </c>
+      <c r="G164" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165">
       <c r="A165" t="s">
         <v>12</v>
       </c>
       <c r="B165" t="s">
         <v>9</v>
       </c>
-      <c r="D165">
+      <c r="C165"/>
+      <c r="D165" t="n">
         <v>48</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>17</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="n">
         <v>11</v>
       </c>
-      <c r="G165">
+      <c r="G165" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166">
       <c r="A166" t="s">
         <v>12</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
       </c>
-      <c r="D166">
+      <c r="C166"/>
+      <c r="D166" t="n">
         <v>49</v>
       </c>
-      <c r="E166">
-        <v>12</v>
-      </c>
-      <c r="F166">
+      <c r="E166" t="n">
+        <v>12</v>
+      </c>
+      <c r="F166" t="n">
         <v>6.5</v>
       </c>
-      <c r="G166">
+      <c r="G166" t="n">
         <v>18.5</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167">
       <c r="A167" t="s">
         <v>12</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
       </c>
-      <c r="D167">
+      <c r="C167"/>
+      <c r="D167" t="n">
         <v>50</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>17</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="n">
         <v>14.5</v>
       </c>
-      <c r="G167">
+      <c r="G167" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168">
       <c r="A168" t="s">
         <v>12</v>
       </c>
       <c r="B168" t="s">
         <v>9</v>
       </c>
-      <c r="D168">
+      <c r="C168"/>
+      <c r="D168" t="n">
         <v>51</v>
       </c>
-      <c r="E168">
-        <v>13</v>
-      </c>
-      <c r="F168">
+      <c r="E168" t="n">
+        <v>13</v>
+      </c>
+      <c r="F168" t="n">
         <v>9.5</v>
       </c>
-      <c r="G168">
+      <c r="G168" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169">
       <c r="A169" t="s">
         <v>12</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
       </c>
-      <c r="D169">
+      <c r="C169"/>
+      <c r="D169" t="n">
         <v>52</v>
       </c>
-      <c r="E169">
-        <v>9</v>
-      </c>
-      <c r="F169">
+      <c r="E169" t="n">
+        <v>9</v>
+      </c>
+      <c r="F169" t="n">
         <v>5</v>
       </c>
-      <c r="G169">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="G169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170" t="s">
         <v>12</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
       </c>
-      <c r="D170">
+      <c r="C170"/>
+      <c r="D170" t="n">
         <v>53</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>3</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="n">
         <v>3</v>
       </c>
-      <c r="G170">
+      <c r="G170" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171">
       <c r="A171" t="s">
         <v>12</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
-      <c r="D171">
+      <c r="C171"/>
+      <c r="D171" t="n">
         <v>1</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>167</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="n">
         <v>167</v>
       </c>
-      <c r="G171">
+      <c r="G171" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172">
       <c r="A172" t="s">
         <v>12</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
       </c>
-      <c r="D172">
+      <c r="C172"/>
+      <c r="D172" t="n">
         <v>2</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>227</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="n">
         <v>227</v>
       </c>
-      <c r="G172">
+      <c r="G172" t="n">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173">
       <c r="A173" t="s">
         <v>12</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
       </c>
-      <c r="D173">
+      <c r="C173"/>
+      <c r="D173" t="n">
         <v>3</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>267</v>
       </c>
-      <c r="F173">
+      <c r="F173" t="n">
         <v>267</v>
       </c>
-      <c r="G173">
+      <c r="G173" t="n">
         <v>267</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174">
       <c r="A174" t="s">
         <v>12</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
       </c>
-      <c r="D174">
+      <c r="C174"/>
+      <c r="D174" t="n">
         <v>4</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>345</v>
       </c>
-      <c r="F174">
+      <c r="F174" t="n">
         <v>345</v>
       </c>
-      <c r="G174">
+      <c r="G174" t="n">
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175">
       <c r="A175" t="s">
         <v>12</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
       </c>
-      <c r="D175">
+      <c r="C175"/>
+      <c r="D175" t="n">
         <v>5</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="n">
         <v>457</v>
       </c>
-      <c r="F175">
+      <c r="F175" t="n">
         <v>457</v>
       </c>
-      <c r="G175">
+      <c r="G175" t="n">
         <v>457</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176">
       <c r="A176" t="s">
         <v>12</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
       </c>
-      <c r="D176">
+      <c r="C176"/>
+      <c r="D176" t="n">
         <v>6</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>442</v>
       </c>
-      <c r="F176">
+      <c r="F176" t="n">
         <v>442</v>
       </c>
-      <c r="G176">
+      <c r="G176" t="n">
         <v>442</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177">
       <c r="A177" t="s">
         <v>12</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
-      <c r="D177">
+      <c r="C177"/>
+      <c r="D177" t="n">
         <v>7</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="n">
         <v>426</v>
       </c>
-      <c r="F177">
+      <c r="F177" t="n">
         <v>426</v>
       </c>
-      <c r="G177">
+      <c r="G177" t="n">
         <v>426</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178">
       <c r="A178" t="s">
         <v>12</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
       </c>
-      <c r="D178">
-        <v>8</v>
-      </c>
-      <c r="E178">
+      <c r="C178"/>
+      <c r="D178" t="n">
+        <v>8</v>
+      </c>
+      <c r="E178" t="n">
         <v>388</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="n">
         <v>388</v>
       </c>
-      <c r="G178">
+      <c r="G178" t="n">
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179">
       <c r="A179" t="s">
         <v>12</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
       </c>
-      <c r="D179">
-        <v>9</v>
-      </c>
-      <c r="E179">
+      <c r="C179"/>
+      <c r="D179" t="n">
+        <v>9</v>
+      </c>
+      <c r="E179" t="n">
         <v>487</v>
       </c>
-      <c r="F179">
+      <c r="F179" t="n">
         <v>487</v>
       </c>
-      <c r="G179">
+      <c r="G179" t="n">
         <v>487</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180">
       <c r="A180" t="s">
         <v>12</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
       </c>
-      <c r="D180">
-        <v>10</v>
-      </c>
-      <c r="E180">
+      <c r="C180"/>
+      <c r="D180" t="n">
+        <v>10</v>
+      </c>
+      <c r="E180" t="n">
         <v>477</v>
       </c>
-      <c r="F180">
+      <c r="F180" t="n">
         <v>477</v>
       </c>
-      <c r="G180">
+      <c r="G180" t="n">
         <v>477</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181">
       <c r="A181" t="s">
         <v>12</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
-      <c r="D181">
+      <c r="C181"/>
+      <c r="D181" t="n">
         <v>26</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>22</v>
       </c>
-      <c r="F181">
+      <c r="F181" t="n">
         <v>22</v>
       </c>
-      <c r="G181">
+      <c r="G181" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182">
       <c r="A182" t="s">
         <v>12</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
       </c>
-      <c r="D182">
+      <c r="C182"/>
+      <c r="D182" t="n">
         <v>27</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>19</v>
       </c>
-      <c r="F182">
+      <c r="F182" t="n">
         <v>19</v>
       </c>
-      <c r="G182">
+      <c r="G182" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183">
       <c r="A183" t="s">
         <v>12</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
       </c>
-      <c r="D183">
+      <c r="C183"/>
+      <c r="D183" t="n">
         <v>28</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="n">
         <v>32</v>
       </c>
-      <c r="F183">
+      <c r="F183" t="n">
         <v>32</v>
       </c>
-      <c r="G183">
+      <c r="G183" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184">
       <c r="A184" t="s">
         <v>12</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
       </c>
-      <c r="D184">
+      <c r="C184"/>
+      <c r="D184" t="n">
         <v>29</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="n">
         <v>28</v>
       </c>
-      <c r="F184">
+      <c r="F184" t="n">
         <v>28</v>
       </c>
-      <c r="G184">
+      <c r="G184" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185">
       <c r="A185" t="s">
         <v>12</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
       </c>
-      <c r="D185">
+      <c r="C185"/>
+      <c r="D185" t="n">
         <v>30</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>33</v>
       </c>
-      <c r="F185">
+      <c r="F185" t="n">
         <v>33</v>
       </c>
-      <c r="G185">
+      <c r="G185" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186">
       <c r="A186" t="s">
         <v>12</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
       </c>
-      <c r="D186">
+      <c r="C186"/>
+      <c r="D186" t="n">
         <v>31</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="n">
         <v>30</v>
       </c>
-      <c r="F186">
+      <c r="F186" t="n">
         <v>30</v>
       </c>
-      <c r="G186">
+      <c r="G186" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187">
       <c r="A187" t="s">
         <v>12</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
       </c>
-      <c r="D187">
+      <c r="C187"/>
+      <c r="D187" t="n">
         <v>32</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="n">
         <v>25</v>
       </c>
-      <c r="F187">
+      <c r="F187" t="n">
         <v>25</v>
       </c>
-      <c r="G187">
+      <c r="G187" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188">
       <c r="A188" t="s">
         <v>12</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
       </c>
-      <c r="D188">
+      <c r="C188"/>
+      <c r="D188" t="n">
         <v>33</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="n">
         <v>33</v>
       </c>
-      <c r="F188">
+      <c r="F188" t="n">
         <v>33</v>
       </c>
-      <c r="G188">
+      <c r="G188" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189">
       <c r="A189" t="s">
         <v>12</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
       </c>
-      <c r="D189">
+      <c r="C189"/>
+      <c r="D189" t="n">
         <v>34</v>
       </c>
-      <c r="E189">
+      <c r="E189" t="n">
         <v>29</v>
       </c>
-      <c r="F189">
+      <c r="F189" t="n">
         <v>29</v>
       </c>
-      <c r="G189">
+      <c r="G189" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190">
       <c r="A190" t="s">
         <v>12</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
       </c>
-      <c r="D190">
+      <c r="C190"/>
+      <c r="D190" t="n">
         <v>35</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="n">
         <v>18</v>
       </c>
-      <c r="F190">
+      <c r="F190" t="n">
         <v>18</v>
       </c>
-      <c r="G190">
+      <c r="G190" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191">
       <c r="A191" t="s">
         <v>12</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
       </c>
-      <c r="D191">
+      <c r="C191"/>
+      <c r="D191" t="n">
         <v>36</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="n">
         <v>31</v>
       </c>
-      <c r="F191">
+      <c r="F191" t="n">
         <v>31</v>
       </c>
-      <c r="G191">
+      <c r="G191" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192">
       <c r="A192" t="s">
         <v>12</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
       </c>
-      <c r="D192">
+      <c r="C192"/>
+      <c r="D192" t="n">
         <v>37</v>
       </c>
-      <c r="E192">
+      <c r="E192" t="n">
         <v>30</v>
       </c>
-      <c r="F192">
+      <c r="F192" t="n">
         <v>30</v>
       </c>
-      <c r="G192">
+      <c r="G192" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193">
       <c r="A193" t="s">
         <v>12</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
       </c>
-      <c r="D193">
+      <c r="C193"/>
+      <c r="D193" t="n">
         <v>38</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>38</v>
       </c>
-      <c r="F193">
+      <c r="F193" t="n">
         <v>38</v>
       </c>
-      <c r="G193">
+      <c r="G193" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194">
       <c r="A194" t="s">
         <v>12</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
-      <c r="D194">
+      <c r="C194"/>
+      <c r="D194" t="n">
         <v>39</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="n">
         <v>43</v>
       </c>
-      <c r="F194">
+      <c r="F194" t="n">
         <v>43</v>
       </c>
-      <c r="G194">
+      <c r="G194" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195">
       <c r="A195" t="s">
         <v>12</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
       </c>
-      <c r="D195">
+      <c r="C195"/>
+      <c r="D195" t="n">
         <v>40</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="n">
         <v>43</v>
       </c>
-      <c r="F195">
+      <c r="F195" t="n">
         <v>43</v>
       </c>
-      <c r="G195">
+      <c r="G195" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196">
       <c r="A196" t="s">
         <v>12</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
       </c>
-      <c r="D196">
+      <c r="C196"/>
+      <c r="D196" t="n">
         <v>41</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="n">
         <v>31</v>
       </c>
-      <c r="F196">
+      <c r="F196" t="n">
         <v>31</v>
       </c>
-      <c r="G196">
+      <c r="G196" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197">
       <c r="A197" t="s">
         <v>12</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
-      <c r="D197">
+      <c r="C197"/>
+      <c r="D197" t="n">
         <v>42</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="n">
         <v>38</v>
       </c>
-      <c r="F197">
+      <c r="F197" t="n">
         <v>38</v>
       </c>
-      <c r="G197">
+      <c r="G197" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198">
       <c r="A198" t="s">
         <v>12</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
       </c>
-      <c r="D198">
+      <c r="C198"/>
+      <c r="D198" t="n">
         <v>43</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="n">
         <v>35</v>
       </c>
-      <c r="F198">
+      <c r="F198" t="n">
         <v>35</v>
       </c>
-      <c r="G198">
+      <c r="G198" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199">
       <c r="A199" t="s">
         <v>12</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
-      <c r="D199">
+      <c r="C199"/>
+      <c r="D199" t="n">
         <v>44</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="n">
         <v>43</v>
       </c>
-      <c r="F199">
+      <c r="F199" t="n">
         <v>43</v>
       </c>
-      <c r="G199">
+      <c r="G199" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200">
       <c r="A200" t="s">
         <v>12</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
       </c>
-      <c r="D200">
+      <c r="C200"/>
+      <c r="D200" t="n">
         <v>45</v>
       </c>
-      <c r="E200">
+      <c r="E200" t="n">
         <v>35</v>
       </c>
-      <c r="F200">
+      <c r="F200" t="n">
         <v>35</v>
       </c>
-      <c r="G200">
+      <c r="G200" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201">
       <c r="A201" t="s">
         <v>12</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
       </c>
-      <c r="D201">
+      <c r="C201"/>
+      <c r="D201" t="n">
         <v>46</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="n">
         <v>54</v>
       </c>
-      <c r="F201">
+      <c r="F201" t="n">
         <v>54</v>
       </c>
-      <c r="G201">
+      <c r="G201" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202">
       <c r="A202" t="s">
         <v>12</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
       </c>
-      <c r="D202">
+      <c r="C202"/>
+      <c r="D202" t="n">
         <v>47</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="n">
         <v>54</v>
       </c>
-      <c r="F202">
+      <c r="F202" t="n">
         <v>54</v>
       </c>
-      <c r="G202">
+      <c r="G202" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203">
       <c r="A203" t="s">
         <v>12</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
       </c>
-      <c r="D203">
+      <c r="C203"/>
+      <c r="D203" t="n">
         <v>48</v>
       </c>
-      <c r="E203">
+      <c r="E203" t="n">
         <v>59</v>
       </c>
-      <c r="F203">
+      <c r="F203" t="n">
         <v>59</v>
       </c>
-      <c r="G203">
+      <c r="G203" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204">
       <c r="A204" t="s">
         <v>12</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
       </c>
-      <c r="D204">
+      <c r="C204"/>
+      <c r="D204" t="n">
         <v>49</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="n">
         <v>88</v>
       </c>
-      <c r="F204">
+      <c r="F204" t="n">
         <v>88</v>
       </c>
-      <c r="G204">
+      <c r="G204" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205">
       <c r="A205" t="s">
         <v>12</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
       </c>
-      <c r="D205">
+      <c r="C205"/>
+      <c r="D205" t="n">
         <v>50</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="n">
         <v>169</v>
       </c>
-      <c r="F205">
+      <c r="F205" t="n">
         <v>169</v>
       </c>
-      <c r="G205">
+      <c r="G205" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206">
       <c r="A206" t="s">
         <v>12</v>
       </c>
       <c r="B206" t="s">
         <v>10</v>
       </c>
-      <c r="D206">
+      <c r="C206"/>
+      <c r="D206" t="n">
         <v>51</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="n">
         <v>160</v>
       </c>
-      <c r="F206">
+      <c r="F206" t="n">
         <v>160</v>
       </c>
-      <c r="G206">
+      <c r="G206" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207">
       <c r="A207" t="s">
         <v>12</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
       </c>
-      <c r="D207">
+      <c r="C207"/>
+      <c r="D207" t="n">
         <v>52</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="n">
         <v>127</v>
       </c>
-      <c r="F207">
+      <c r="F207" t="n">
         <v>127</v>
       </c>
-      <c r="G207">
+      <c r="G207" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208">
       <c r="A208" t="s">
         <v>13</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
       </c>
-      <c r="D208">
+      <c r="C208"/>
+      <c r="D208" t="n">
         <v>1</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="n">
         <v>62</v>
       </c>
-      <c r="F208">
+      <c r="F208" t="n">
         <v>41</v>
       </c>
-      <c r="G208">
+      <c r="G208" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209">
       <c r="A209" t="s">
         <v>13</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
       </c>
-      <c r="D209">
+      <c r="C209"/>
+      <c r="D209" t="n">
         <v>2</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="n">
         <v>67</v>
       </c>
-      <c r="F209">
+      <c r="F209" t="n">
         <v>65</v>
       </c>
-      <c r="G209">
+      <c r="G209" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210">
       <c r="A210" t="s">
         <v>13</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
       </c>
-      <c r="D210">
+      <c r="C210"/>
+      <c r="D210" t="n">
         <v>3</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="n">
         <v>107</v>
       </c>
-      <c r="F210">
+      <c r="F210" t="n">
         <v>89</v>
       </c>
-      <c r="G210">
+      <c r="G210" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211">
       <c r="A211" t="s">
         <v>13</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
-      <c r="D211">
+      <c r="C211"/>
+      <c r="D211" t="n">
         <v>4</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="n">
         <v>98</v>
       </c>
-      <c r="F211">
+      <c r="F211" t="n">
         <v>90</v>
       </c>
-      <c r="G211">
+      <c r="G211" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212">
       <c r="A212" t="s">
         <v>13</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
       </c>
-      <c r="D212">
+      <c r="C212"/>
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="n">
         <v>84</v>
       </c>
-      <c r="F212">
+      <c r="F212" t="n">
         <v>72</v>
       </c>
-      <c r="G212">
+      <c r="G212" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213">
       <c r="A213" t="s">
         <v>13</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
       </c>
-      <c r="D213">
+      <c r="C213"/>
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213">
+      <c r="E213" t="n">
         <v>83</v>
       </c>
-      <c r="F213">
+      <c r="F213" t="n">
         <v>65</v>
       </c>
-      <c r="G213">
+      <c r="G213" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214">
       <c r="A214" t="s">
         <v>13</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
       </c>
-      <c r="D214">
+      <c r="C214"/>
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="n">
         <v>92</v>
       </c>
-      <c r="F214">
+      <c r="F214" t="n">
         <v>72</v>
       </c>
-      <c r="G214">
+      <c r="G214" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215">
       <c r="A215" t="s">
         <v>13</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
       </c>
-      <c r="D215">
-        <v>8</v>
-      </c>
-      <c r="E215">
+      <c r="C215"/>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="n">
         <v>102</v>
       </c>
-      <c r="F215">
+      <c r="F215" t="n">
         <v>90</v>
       </c>
-      <c r="G215">
+      <c r="G215" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216">
       <c r="A216" t="s">
         <v>13</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
       </c>
-      <c r="D216">
-        <v>9</v>
-      </c>
-      <c r="E216">
+      <c r="C216"/>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="n">
         <v>88</v>
       </c>
-      <c r="F216">
+      <c r="F216" t="n">
         <v>59</v>
       </c>
-      <c r="G216">
+      <c r="G216" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217">
       <c r="A217" t="s">
         <v>13</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
       </c>
-      <c r="D217">
-        <v>10</v>
-      </c>
-      <c r="E217">
+      <c r="C217"/>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="n">
         <v>83</v>
       </c>
-      <c r="F217">
+      <c r="F217" t="n">
         <v>81</v>
       </c>
-      <c r="G217">
+      <c r="G217" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218">
       <c r="A218" t="s">
         <v>13</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
       </c>
-      <c r="D218">
+      <c r="C218"/>
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218">
+      <c r="E218" t="n">
         <v>84</v>
       </c>
-      <c r="F218">
+      <c r="F218" t="n">
         <v>51</v>
       </c>
-      <c r="G218">
+      <c r="G218" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219">
       <c r="A219" t="s">
         <v>13</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
       </c>
-      <c r="D219">
-        <v>12</v>
-      </c>
-      <c r="E219">
+      <c r="C219"/>
+      <c r="D219" t="n">
+        <v>12</v>
+      </c>
+      <c r="E219" t="n">
         <v>101</v>
       </c>
-      <c r="F219">
+      <c r="F219" t="n">
         <v>88</v>
       </c>
-      <c r="G219">
+      <c r="G219" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220">
       <c r="A220" t="s">
         <v>13</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
       </c>
-      <c r="D220">
-        <v>13</v>
-      </c>
-      <c r="E220">
+      <c r="C220"/>
+      <c r="D220" t="n">
+        <v>13</v>
+      </c>
+      <c r="E220" t="n">
         <v>99</v>
       </c>
-      <c r="F220">
+      <c r="F220" t="n">
         <v>90</v>
       </c>
-      <c r="G220">
+      <c r="G220" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221">
       <c r="A221" t="s">
         <v>13</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
       </c>
-      <c r="D221">
+      <c r="C221"/>
+      <c r="D221" t="n">
         <v>14</v>
       </c>
-      <c r="E221">
+      <c r="E221" t="n">
         <v>89</v>
       </c>
-      <c r="F221">
+      <c r="F221" t="n">
         <v>87</v>
       </c>
-      <c r="G221">
+      <c r="G221" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222">
       <c r="A222" t="s">
         <v>13</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
       </c>
-      <c r="D222">
+      <c r="C222"/>
+      <c r="D222" t="n">
         <v>15</v>
       </c>
-      <c r="E222">
+      <c r="E222" t="n">
         <v>102</v>
       </c>
-      <c r="F222">
+      <c r="F222" t="n">
         <v>76</v>
       </c>
-      <c r="G222">
+      <c r="G222" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223">
       <c r="A223" t="s">
         <v>13</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
       </c>
-      <c r="D223">
+      <c r="C223"/>
+      <c r="D223" t="n">
         <v>16</v>
       </c>
-      <c r="E223">
+      <c r="E223" t="n">
         <v>91</v>
       </c>
-      <c r="F223">
+      <c r="F223" t="n">
         <v>87</v>
       </c>
-      <c r="G223">
+      <c r="G223" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224">
       <c r="A224" t="s">
         <v>13</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
       </c>
-      <c r="D224">
+      <c r="C224"/>
+      <c r="D224" t="n">
         <v>17</v>
       </c>
-      <c r="E224">
+      <c r="E224" t="n">
         <v>108</v>
       </c>
-      <c r="F224">
+      <c r="F224" t="n">
         <v>64</v>
       </c>
-      <c r="G224">
+      <c r="G224" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225">
       <c r="A225" t="s">
         <v>13</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
       </c>
-      <c r="D225">
+      <c r="C225"/>
+      <c r="D225" t="n">
         <v>18</v>
       </c>
-      <c r="E225">
+      <c r="E225" t="n">
         <v>108</v>
       </c>
-      <c r="F225">
+      <c r="F225" t="n">
         <v>103</v>
       </c>
-      <c r="G225">
+      <c r="G225" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226">
       <c r="A226" t="s">
         <v>13</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
       </c>
-      <c r="D226">
+      <c r="C226"/>
+      <c r="D226" t="n">
         <v>19</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="n">
         <v>100</v>
       </c>
-      <c r="F226">
+      <c r="F226" t="n">
         <v>92</v>
       </c>
-      <c r="G226">
+      <c r="G226" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227">
       <c r="A227" t="s">
         <v>13</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
       </c>
-      <c r="D227">
+      <c r="C227"/>
+      <c r="D227" t="n">
         <v>20</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="n">
         <v>115</v>
       </c>
-      <c r="F227">
+      <c r="F227" t="n">
         <v>105</v>
       </c>
-      <c r="G227">
+      <c r="G227" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228">
       <c r="A228" t="s">
         <v>13</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
       </c>
-      <c r="D228">
+      <c r="C228"/>
+      <c r="D228" t="n">
         <v>21</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="n">
         <v>116</v>
       </c>
-      <c r="F228">
+      <c r="F228" t="n">
         <v>107</v>
       </c>
-      <c r="G228">
+      <c r="G228" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229">
       <c r="A229" t="s">
         <v>13</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
       </c>
-      <c r="D229">
+      <c r="C229"/>
+      <c r="D229" t="n">
         <v>22</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="n">
         <v>106</v>
       </c>
-      <c r="F229">
+      <c r="F229" t="n">
         <v>91</v>
       </c>
-      <c r="G229">
+      <c r="G229" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230">
       <c r="A230" t="s">
         <v>13</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
       </c>
-      <c r="D230">
+      <c r="C230"/>
+      <c r="D230" t="n">
         <v>23</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="n">
         <v>107</v>
       </c>
-      <c r="F230">
+      <c r="F230" t="n">
         <v>100</v>
       </c>
-      <c r="G230">
+      <c r="G230" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231">
       <c r="A231" t="s">
         <v>13</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
-      <c r="D231">
+      <c r="C231"/>
+      <c r="D231" t="n">
         <v>24</v>
       </c>
-      <c r="E231">
+      <c r="E231" t="n">
         <v>118</v>
       </c>
-      <c r="F231">
+      <c r="F231" t="n">
         <v>113</v>
       </c>
-      <c r="G231">
+      <c r="G231" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232">
       <c r="A232" t="s">
         <v>13</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
       </c>
-      <c r="D232">
+      <c r="C232"/>
+      <c r="D232" t="n">
         <v>25</v>
       </c>
-      <c r="E232">
+      <c r="E232" t="n">
         <v>109</v>
       </c>
-      <c r="F232">
+      <c r="F232" t="n">
         <v>105</v>
       </c>
-      <c r="G232">
+      <c r="G232" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233">
       <c r="A233" t="s">
         <v>13</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
       </c>
-      <c r="D233">
+      <c r="C233"/>
+      <c r="D233" t="n">
         <v>26</v>
       </c>
-      <c r="E233">
+      <c r="E233" t="n">
         <v>103</v>
       </c>
-      <c r="F233">
+      <c r="F233" t="n">
         <v>93</v>
       </c>
-      <c r="G233">
+      <c r="G233" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234">
       <c r="A234" t="s">
         <v>13</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
       </c>
-      <c r="D234">
+      <c r="C234"/>
+      <c r="D234" t="n">
         <v>27</v>
       </c>
-      <c r="E234">
+      <c r="E234" t="n">
         <v>103</v>
       </c>
-      <c r="F234">
+      <c r="F234" t="n">
         <v>80</v>
       </c>
-      <c r="G234">
+      <c r="G234" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235">
       <c r="A235" t="s">
         <v>13</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
       </c>
-      <c r="D235">
+      <c r="C235"/>
+      <c r="D235" t="n">
         <v>28</v>
       </c>
-      <c r="E235">
+      <c r="E235" t="n">
         <v>182</v>
       </c>
-      <c r="F235">
+      <c r="F235" t="n">
         <v>145</v>
       </c>
-      <c r="G235">
+      <c r="G235" t="n">
         <v>194</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236">
       <c r="A236" t="s">
         <v>13</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
       </c>
-      <c r="D236">
+      <c r="C236"/>
+      <c r="D236" t="n">
         <v>29</v>
       </c>
-      <c r="E236">
+      <c r="E236" t="n">
         <v>116</v>
       </c>
-      <c r="F236">
+      <c r="F236" t="n">
         <v>104</v>
       </c>
-      <c r="G236">
+      <c r="G236" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237">
       <c r="A237" t="s">
         <v>13</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
       </c>
-      <c r="D237">
+      <c r="C237"/>
+      <c r="D237" t="n">
         <v>30</v>
       </c>
-      <c r="E237">
+      <c r="E237" t="n">
         <v>131</v>
       </c>
-      <c r="F237">
+      <c r="F237" t="n">
         <v>103</v>
       </c>
-      <c r="G237">
+      <c r="G237" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238">
       <c r="A238" t="s">
         <v>13</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
       </c>
-      <c r="D238">
+      <c r="C238"/>
+      <c r="D238" t="n">
         <v>31</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="n">
         <v>108</v>
       </c>
-      <c r="F238">
+      <c r="F238" t="n">
         <v>97</v>
       </c>
-      <c r="G238">
+      <c r="G238" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239">
       <c r="A239" t="s">
         <v>13</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
       </c>
-      <c r="D239">
+      <c r="C239"/>
+      <c r="D239" t="n">
         <v>32</v>
       </c>
-      <c r="E239">
+      <c r="E239" t="n">
         <v>101</v>
       </c>
-      <c r="F239">
+      <c r="F239" t="n">
         <v>93</v>
       </c>
-      <c r="G239">
+      <c r="G239" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240">
       <c r="A240" t="s">
         <v>13</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
       </c>
-      <c r="D240">
+      <c r="C240"/>
+      <c r="D240" t="n">
         <v>33</v>
       </c>
-      <c r="E240">
+      <c r="E240" t="n">
         <v>123</v>
       </c>
-      <c r="F240">
+      <c r="F240" t="n">
         <v>110</v>
       </c>
-      <c r="G240">
+      <c r="G240" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241">
       <c r="A241" t="s">
         <v>13</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
       </c>
-      <c r="D241">
+      <c r="C241"/>
+      <c r="D241" t="n">
         <v>34</v>
       </c>
-      <c r="E241">
+      <c r="E241" t="n">
         <v>138</v>
       </c>
-      <c r="F241">
+      <c r="F241" t="n">
         <v>125</v>
       </c>
-      <c r="G241">
+      <c r="G241" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242">
       <c r="A242" t="s">
         <v>13</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
       </c>
-      <c r="D242">
+      <c r="C242"/>
+      <c r="D242" t="n">
         <v>35</v>
       </c>
-      <c r="E242">
+      <c r="E242" t="n">
         <v>104</v>
       </c>
-      <c r="F242">
+      <c r="F242" t="n">
         <v>87</v>
       </c>
-      <c r="G242">
+      <c r="G242" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243">
       <c r="A243" t="s">
         <v>13</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
       </c>
-      <c r="D243">
+      <c r="C243"/>
+      <c r="D243" t="n">
         <v>36</v>
       </c>
-      <c r="E243">
+      <c r="E243" t="n">
         <v>96</v>
       </c>
-      <c r="F243">
+      <c r="F243" t="n">
         <v>81</v>
       </c>
-      <c r="G243">
+      <c r="G243" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244">
       <c r="A244" t="s">
         <v>13</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
       </c>
-      <c r="D244">
+      <c r="C244"/>
+      <c r="D244" t="n">
         <v>37</v>
       </c>
-      <c r="E244">
+      <c r="E244" t="n">
         <v>107</v>
       </c>
-      <c r="F244">
+      <c r="F244" t="n">
         <v>107</v>
       </c>
-      <c r="G244">
+      <c r="G244" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245">
       <c r="A245" t="s">
         <v>13</v>
       </c>
       <c r="B245" t="s">
         <v>8</v>
       </c>
-      <c r="D245">
+      <c r="C245"/>
+      <c r="D245" t="n">
         <v>38</v>
       </c>
-      <c r="E245">
+      <c r="E245" t="n">
         <v>122</v>
       </c>
-      <c r="F245">
+      <c r="F245" t="n">
         <v>92</v>
       </c>
-      <c r="G245">
+      <c r="G245" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246">
       <c r="A246" t="s">
         <v>13</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
       </c>
-      <c r="D246">
+      <c r="C246"/>
+      <c r="D246" t="n">
         <v>39</v>
       </c>
-      <c r="E246">
+      <c r="E246" t="n">
         <v>88</v>
       </c>
-      <c r="F246">
+      <c r="F246" t="n">
         <v>75</v>
       </c>
-      <c r="G246">
+      <c r="G246" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247">
       <c r="A247" t="s">
         <v>13</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
       </c>
-      <c r="D247">
+      <c r="C247"/>
+      <c r="D247" t="n">
         <v>40</v>
       </c>
-      <c r="E247">
+      <c r="E247" t="n">
         <v>88</v>
       </c>
-      <c r="F247">
+      <c r="F247" t="n">
         <v>83</v>
       </c>
-      <c r="G247">
+      <c r="G247" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248">
       <c r="A248" t="s">
         <v>13</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
       </c>
-      <c r="D248">
+      <c r="C248"/>
+      <c r="D248" t="n">
         <v>41</v>
       </c>
-      <c r="E248">
+      <c r="E248" t="n">
         <v>82</v>
       </c>
-      <c r="F248">
+      <c r="F248" t="n">
         <v>72</v>
       </c>
-      <c r="G248">
+      <c r="G248" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249">
       <c r="A249" t="s">
         <v>13</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
       </c>
-      <c r="D249">
+      <c r="C249"/>
+      <c r="D249" t="n">
         <v>42</v>
       </c>
-      <c r="E249">
+      <c r="E249" t="n">
         <v>88</v>
       </c>
-      <c r="F249">
+      <c r="F249" t="n">
         <v>62</v>
       </c>
-      <c r="G249">
+      <c r="G249" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250">
       <c r="A250" t="s">
         <v>13</v>
       </c>
       <c r="B250" t="s">
         <v>8</v>
       </c>
-      <c r="D250">
+      <c r="C250"/>
+      <c r="D250" t="n">
         <v>43</v>
       </c>
-      <c r="E250">
+      <c r="E250" t="n">
         <v>95</v>
       </c>
-      <c r="F250">
+      <c r="F250" t="n">
         <v>62</v>
       </c>
-      <c r="G250">
+      <c r="G250" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251">
       <c r="A251" t="s">
         <v>13</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
       </c>
-      <c r="D251">
+      <c r="C251"/>
+      <c r="D251" t="n">
         <v>44</v>
       </c>
-      <c r="E251">
+      <c r="E251" t="n">
         <v>106</v>
       </c>
-      <c r="F251">
+      <c r="F251" t="n">
         <v>104</v>
       </c>
-      <c r="G251">
+      <c r="G251" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252">
       <c r="A252" t="s">
         <v>13</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
       </c>
-      <c r="D252">
+      <c r="C252"/>
+      <c r="D252" t="n">
         <v>45</v>
       </c>
-      <c r="E252">
+      <c r="E252" t="n">
         <v>101</v>
       </c>
-      <c r="F252">
+      <c r="F252" t="n">
         <v>100</v>
       </c>
-      <c r="G252">
+      <c r="G252" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253">
       <c r="A253" t="s">
         <v>13</v>
       </c>
       <c r="B253" t="s">
         <v>8</v>
       </c>
-      <c r="D253">
+      <c r="C253"/>
+      <c r="D253" t="n">
         <v>46</v>
       </c>
-      <c r="E253">
+      <c r="E253" t="n">
         <v>122</v>
       </c>
-      <c r="F253">
+      <c r="F253" t="n">
         <v>101</v>
       </c>
-      <c r="G253">
+      <c r="G253" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254">
       <c r="A254" t="s">
         <v>13</v>
       </c>
       <c r="B254" t="s">
         <v>8</v>
       </c>
-      <c r="D254">
+      <c r="C254"/>
+      <c r="D254" t="n">
         <v>47</v>
       </c>
-      <c r="E254">
+      <c r="E254" t="n">
         <v>106</v>
       </c>
-      <c r="F254">
+      <c r="F254" t="n">
         <v>96</v>
       </c>
-      <c r="G254">
+      <c r="G254" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255">
       <c r="A255" t="s">
         <v>13</v>
       </c>
       <c r="B255" t="s">
         <v>8</v>
       </c>
-      <c r="D255">
+      <c r="C255"/>
+      <c r="D255" t="n">
         <v>48</v>
       </c>
-      <c r="E255">
+      <c r="E255" t="n">
         <v>127</v>
       </c>
-      <c r="F255">
+      <c r="F255" t="n">
         <v>113</v>
       </c>
-      <c r="G255">
+      <c r="G255" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256">
       <c r="A256" t="s">
         <v>13</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="D256">
+      <c r="C256"/>
+      <c r="D256" t="n">
         <v>49</v>
       </c>
-      <c r="E256">
+      <c r="E256" t="n">
         <v>151</v>
       </c>
-      <c r="F256">
+      <c r="F256" t="n">
         <v>146</v>
       </c>
-      <c r="G256">
+      <c r="G256" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257">
       <c r="A257" t="s">
         <v>13</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
       </c>
-      <c r="D257">
+      <c r="C257"/>
+      <c r="D257" t="n">
         <v>50</v>
       </c>
-      <c r="E257">
+      <c r="E257" t="n">
         <v>157</v>
       </c>
-      <c r="F257">
+      <c r="F257" t="n">
         <v>150</v>
       </c>
-      <c r="G257">
+      <c r="G257" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258">
       <c r="A258" t="s">
         <v>13</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="D258">
+      <c r="C258"/>
+      <c r="D258" t="n">
         <v>51</v>
       </c>
-      <c r="E258">
+      <c r="E258" t="n">
         <v>104</v>
       </c>
-      <c r="F258">
+      <c r="F258" t="n">
         <v>99</v>
       </c>
-      <c r="G258">
+      <c r="G258" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259">
       <c r="A259" t="s">
         <v>13</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="D259">
+      <c r="C259"/>
+      <c r="D259" t="n">
         <v>52</v>
       </c>
-      <c r="E259">
+      <c r="E259" t="n">
         <v>87</v>
       </c>
-      <c r="F259">
+      <c r="F259" t="n">
         <v>60</v>
       </c>
-      <c r="G259">
+      <c r="G259" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260">
       <c r="A260" t="s">
         <v>13</v>
       </c>
       <c r="B260" t="s">
         <v>9</v>
       </c>
-      <c r="D260">
+      <c r="C260"/>
+      <c r="D260" t="n">
         <v>1</v>
       </c>
-      <c r="E260">
+      <c r="E260" t="n">
         <v>11.5</v>
       </c>
-      <c r="F260">
+      <c r="F260" t="n">
         <v>4</v>
       </c>
-      <c r="G260">
+      <c r="G260" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261">
       <c r="A261" t="s">
         <v>13</v>
       </c>
       <c r="B261" t="s">
         <v>9</v>
       </c>
-      <c r="D261">
+      <c r="C261"/>
+      <c r="D261" t="n">
         <v>2</v>
       </c>
-      <c r="E261">
+      <c r="E261" t="n">
         <v>8.5</v>
       </c>
-      <c r="F261">
+      <c r="F261" t="n">
         <v>2</v>
       </c>
-      <c r="G261">
+      <c r="G261" t="n">
         <v>39.25</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262">
       <c r="A262" t="s">
         <v>13</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
       </c>
-      <c r="D262">
+      <c r="C262"/>
+      <c r="D262" t="n">
         <v>3</v>
       </c>
-      <c r="E262">
+      <c r="E262" t="n">
         <v>21.5</v>
       </c>
-      <c r="F262">
+      <c r="F262" t="n">
         <v>6.25</v>
       </c>
-      <c r="G262">
+      <c r="G262" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263">
       <c r="A263" t="s">
         <v>13</v>
       </c>
       <c r="B263" t="s">
         <v>9</v>
       </c>
-      <c r="D263">
+      <c r="C263"/>
+      <c r="D263" t="n">
         <v>4</v>
       </c>
-      <c r="E263">
+      <c r="E263" t="n">
         <v>16.5</v>
       </c>
-      <c r="F263">
+      <c r="F263" t="n">
         <v>4</v>
       </c>
-      <c r="G263">
+      <c r="G263" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264">
       <c r="A264" t="s">
         <v>13</v>
       </c>
       <c r="B264" t="s">
         <v>9</v>
       </c>
-      <c r="D264">
+      <c r="C264"/>
+      <c r="D264" t="n">
         <v>5</v>
       </c>
-      <c r="E264">
+      <c r="E264" t="n">
         <v>21.5</v>
       </c>
-      <c r="F264">
+      <c r="F264" t="n">
         <v>6.75</v>
       </c>
-      <c r="G264">
+      <c r="G264" t="n">
         <v>56.75</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265">
       <c r="A265" t="s">
         <v>13</v>
       </c>
       <c r="B265" t="s">
         <v>9</v>
       </c>
-      <c r="D265">
+      <c r="C265"/>
+      <c r="D265" t="n">
         <v>6</v>
       </c>
-      <c r="E265">
+      <c r="E265" t="n">
         <v>21</v>
       </c>
-      <c r="F265">
+      <c r="F265" t="n">
         <v>10.5</v>
       </c>
-      <c r="G265">
+      <c r="G265" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266">
       <c r="A266" t="s">
         <v>13</v>
       </c>
       <c r="B266" t="s">
         <v>9</v>
       </c>
-      <c r="D266">
+      <c r="C266"/>
+      <c r="D266" t="n">
         <v>7</v>
       </c>
-      <c r="E266">
+      <c r="E266" t="n">
         <v>18.5</v>
       </c>
-      <c r="F266">
+      <c r="F266" t="n">
         <v>3.5</v>
       </c>
-      <c r="G266">
+      <c r="G266" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267">
       <c r="A267" t="s">
         <v>13</v>
       </c>
       <c r="B267" t="s">
         <v>9</v>
       </c>
-      <c r="D267">
-        <v>8</v>
-      </c>
-      <c r="E267">
+      <c r="C267"/>
+      <c r="D267" t="n">
+        <v>8</v>
+      </c>
+      <c r="E267" t="n">
         <v>25</v>
       </c>
-      <c r="F267">
+      <c r="F267" t="n">
         <v>7.75</v>
       </c>
-      <c r="G267">
+      <c r="G267" t="n">
         <v>57.5</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268">
       <c r="A268" t="s">
         <v>13</v>
       </c>
       <c r="B268" t="s">
         <v>9</v>
       </c>
-      <c r="D268">
-        <v>9</v>
-      </c>
-      <c r="E268">
+      <c r="C268"/>
+      <c r="D268" t="n">
+        <v>9</v>
+      </c>
+      <c r="E268" t="n">
         <v>31</v>
       </c>
-      <c r="F268">
+      <c r="F268" t="n">
         <v>3.75</v>
       </c>
-      <c r="G268">
+      <c r="G268" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269">
       <c r="A269" t="s">
         <v>13</v>
       </c>
       <c r="B269" t="s">
         <v>9</v>
       </c>
-      <c r="D269">
-        <v>10</v>
-      </c>
-      <c r="E269">
+      <c r="C269"/>
+      <c r="D269" t="n">
+        <v>10</v>
+      </c>
+      <c r="E269" t="n">
         <v>29</v>
       </c>
-      <c r="F269">
+      <c r="F269" t="n">
         <v>4.75</v>
       </c>
-      <c r="G269">
+      <c r="G269" t="n">
         <v>63.5</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270">
       <c r="A270" t="s">
         <v>13</v>
       </c>
       <c r="B270" t="s">
         <v>9</v>
       </c>
-      <c r="D270">
+      <c r="C270"/>
+      <c r="D270" t="n">
         <v>11</v>
       </c>
-      <c r="E270">
+      <c r="E270" t="n">
         <v>23.5</v>
       </c>
-      <c r="F270">
+      <c r="F270" t="n">
         <v>2.75</v>
       </c>
-      <c r="G270">
+      <c r="G270" t="n">
         <v>57.25</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271">
       <c r="A271" t="s">
         <v>13</v>
       </c>
       <c r="B271" t="s">
         <v>9</v>
       </c>
-      <c r="D271">
-        <v>12</v>
-      </c>
-      <c r="E271">
+      <c r="C271"/>
+      <c r="D271" t="n">
+        <v>12</v>
+      </c>
+      <c r="E271" t="n">
         <v>34.5</v>
       </c>
-      <c r="F271">
+      <c r="F271" t="n">
         <v>13.75</v>
       </c>
-      <c r="G271">
+      <c r="G271" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272">
       <c r="A272" t="s">
         <v>13</v>
       </c>
       <c r="B272" t="s">
         <v>9</v>
       </c>
-      <c r="D272">
-        <v>13</v>
-      </c>
-      <c r="E272">
+      <c r="C272"/>
+      <c r="D272" t="n">
+        <v>13</v>
+      </c>
+      <c r="E272" t="n">
         <v>27.5</v>
       </c>
-      <c r="F272">
+      <c r="F272" t="n">
         <v>11.25</v>
       </c>
-      <c r="G272">
+      <c r="G272" t="n">
         <v>49.75</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273">
       <c r="A273" t="s">
         <v>13</v>
       </c>
       <c r="B273" t="s">
         <v>9</v>
       </c>
-      <c r="D273">
+      <c r="C273"/>
+      <c r="D273" t="n">
         <v>14</v>
       </c>
-      <c r="E273">
+      <c r="E273" t="n">
         <v>30</v>
       </c>
-      <c r="F273">
+      <c r="F273" t="n">
         <v>9.75</v>
       </c>
-      <c r="G273">
+      <c r="G273" t="n">
         <v>49.25</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274">
       <c r="A274" t="s">
         <v>13</v>
       </c>
       <c r="B274" t="s">
         <v>9</v>
       </c>
-      <c r="D274">
+      <c r="C274"/>
+      <c r="D274" t="n">
         <v>15</v>
       </c>
-      <c r="E274">
+      <c r="E274" t="n">
         <v>16</v>
       </c>
-      <c r="F274">
+      <c r="F274" t="n">
         <v>5.75</v>
       </c>
-      <c r="G274">
+      <c r="G274" t="n">
         <v>31.25</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275">
       <c r="A275" t="s">
         <v>13</v>
       </c>
       <c r="B275" t="s">
         <v>9</v>
       </c>
-      <c r="D275">
+      <c r="C275"/>
+      <c r="D275" t="n">
         <v>16</v>
       </c>
-      <c r="E275">
+      <c r="E275" t="n">
         <v>19.5</v>
       </c>
-      <c r="F275">
+      <c r="F275" t="n">
         <v>5.25</v>
       </c>
-      <c r="G275">
+      <c r="G275" t="n">
         <v>37.75</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276">
       <c r="A276" t="s">
         <v>13</v>
       </c>
       <c r="B276" t="s">
         <v>9</v>
       </c>
-      <c r="D276">
+      <c r="C276"/>
+      <c r="D276" t="n">
         <v>17</v>
       </c>
-      <c r="E276">
+      <c r="E276" t="n">
         <v>16.5</v>
       </c>
-      <c r="F276">
-        <v>10</v>
-      </c>
-      <c r="G276">
+      <c r="F276" t="n">
+        <v>10</v>
+      </c>
+      <c r="G276" t="n">
         <v>23.25</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277">
       <c r="A277" t="s">
         <v>13</v>
       </c>
       <c r="B277" t="s">
         <v>9</v>
       </c>
-      <c r="D277">
+      <c r="C277"/>
+      <c r="D277" t="n">
         <v>18</v>
       </c>
-      <c r="E277">
+      <c r="E277" t="n">
         <v>24.5</v>
       </c>
-      <c r="F277">
+      <c r="F277" t="n">
         <v>11.75</v>
       </c>
-      <c r="G277">
+      <c r="G277" t="n">
         <v>37.5</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278">
       <c r="A278" t="s">
         <v>13</v>
       </c>
       <c r="B278" t="s">
         <v>9</v>
       </c>
-      <c r="D278">
+      <c r="C278"/>
+      <c r="D278" t="n">
         <v>19</v>
       </c>
-      <c r="E278">
+      <c r="E278" t="n">
         <v>17.5</v>
       </c>
-      <c r="F278">
+      <c r="F278" t="n">
         <v>13.25</v>
       </c>
-      <c r="G278">
+      <c r="G278" t="n">
         <v>30.5</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279">
       <c r="A279" t="s">
         <v>13</v>
       </c>
       <c r="B279" t="s">
         <v>9</v>
       </c>
-      <c r="D279">
+      <c r="C279"/>
+      <c r="D279" t="n">
         <v>20</v>
       </c>
-      <c r="E279">
+      <c r="E279" t="n">
         <v>21</v>
       </c>
-      <c r="F279">
+      <c r="F279" t="n">
         <v>17.25</v>
       </c>
-      <c r="G279">
+      <c r="G279" t="n">
         <v>24.25</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280">
       <c r="A280" t="s">
         <v>13</v>
       </c>
       <c r="B280" t="s">
         <v>9</v>
       </c>
-      <c r="D280">
+      <c r="C280"/>
+      <c r="D280" t="n">
         <v>21</v>
       </c>
-      <c r="E280">
+      <c r="E280" t="n">
         <v>25.5</v>
       </c>
-      <c r="F280">
+      <c r="F280" t="n">
         <v>11.5</v>
       </c>
-      <c r="G280">
+      <c r="G280" t="n">
         <v>39.5</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281">
       <c r="A281" t="s">
         <v>13</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
       </c>
-      <c r="D281">
+      <c r="C281"/>
+      <c r="D281" t="n">
         <v>22</v>
       </c>
-      <c r="E281">
+      <c r="E281" t="n">
         <v>19</v>
       </c>
-      <c r="F281">
+      <c r="F281" t="n">
         <v>15.25</v>
       </c>
-      <c r="G281">
+      <c r="G281" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282">
       <c r="A282" t="s">
         <v>13</v>
       </c>
       <c r="B282" t="s">
         <v>9</v>
       </c>
-      <c r="D282">
+      <c r="C282"/>
+      <c r="D282" t="n">
         <v>23</v>
       </c>
-      <c r="E282">
+      <c r="E282" t="n">
         <v>16.5</v>
       </c>
-      <c r="F282">
+      <c r="F282" t="n">
         <v>15.25</v>
       </c>
-      <c r="G282">
+      <c r="G282" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283">
       <c r="A283" t="s">
         <v>13</v>
       </c>
       <c r="B283" t="s">
         <v>9</v>
       </c>
-      <c r="D283">
+      <c r="C283"/>
+      <c r="D283" t="n">
         <v>24</v>
       </c>
-      <c r="E283">
+      <c r="E283" t="n">
         <v>12.5</v>
       </c>
-      <c r="F283">
+      <c r="F283" t="n">
         <v>10.75</v>
       </c>
-      <c r="G283">
+      <c r="G283" t="n">
         <v>28.5</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284">
       <c r="A284" t="s">
         <v>13</v>
       </c>
       <c r="B284" t="s">
         <v>9</v>
       </c>
-      <c r="D284">
+      <c r="C284"/>
+      <c r="D284" t="n">
         <v>25</v>
       </c>
-      <c r="E284">
+      <c r="E284" t="n">
         <v>23</v>
       </c>
-      <c r="F284">
+      <c r="F284" t="n">
         <v>20.75</v>
       </c>
-      <c r="G284">
+      <c r="G284" t="n">
         <v>30.75</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285">
       <c r="A285" t="s">
         <v>13</v>
       </c>
       <c r="B285" t="s">
         <v>9</v>
       </c>
-      <c r="D285">
+      <c r="C285"/>
+      <c r="D285" t="n">
         <v>26</v>
       </c>
-      <c r="E285">
-        <v>9</v>
-      </c>
-      <c r="F285">
+      <c r="E285" t="n">
+        <v>9</v>
+      </c>
+      <c r="F285" t="n">
         <v>7</v>
       </c>
-      <c r="G285">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="G285" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286">
       <c r="A286" t="s">
         <v>13</v>
       </c>
       <c r="B286" t="s">
         <v>9</v>
       </c>
-      <c r="D286">
+      <c r="C286"/>
+      <c r="D286" t="n">
         <v>27</v>
       </c>
-      <c r="E286">
-        <v>8</v>
-      </c>
-      <c r="F286">
+      <c r="E286" t="n">
+        <v>8</v>
+      </c>
+      <c r="F286" t="n">
         <v>7</v>
       </c>
-      <c r="G286">
+      <c r="G286" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287">
       <c r="A287" t="s">
         <v>13</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
       </c>
-      <c r="D287">
+      <c r="C287"/>
+      <c r="D287" t="n">
         <v>28</v>
       </c>
-      <c r="E287">
-        <v>12</v>
-      </c>
-      <c r="F287">
+      <c r="E287" t="n">
+        <v>12</v>
+      </c>
+      <c r="F287" t="n">
         <v>11.5</v>
       </c>
-      <c r="G287">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="G287" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288">
       <c r="A288" t="s">
         <v>13</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
       </c>
-      <c r="D288">
+      <c r="C288"/>
+      <c r="D288" t="n">
         <v>29</v>
       </c>
-      <c r="E288">
-        <v>8</v>
-      </c>
-      <c r="F288">
+      <c r="E288" t="n">
+        <v>8</v>
+      </c>
+      <c r="F288" t="n">
         <v>7.5</v>
       </c>
-      <c r="G288">
+      <c r="G288" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289">
       <c r="A289" t="s">
         <v>13</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
       </c>
-      <c r="D289">
+      <c r="C289"/>
+      <c r="D289" t="n">
         <v>30</v>
       </c>
-      <c r="E289">
-        <v>12</v>
-      </c>
-      <c r="F289">
-        <v>8</v>
-      </c>
-      <c r="G289">
+      <c r="E289" t="n">
+        <v>12</v>
+      </c>
+      <c r="F289" t="n">
+        <v>8</v>
+      </c>
+      <c r="G289" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290">
       <c r="A290" t="s">
         <v>13</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
       </c>
-      <c r="D290">
+      <c r="C290"/>
+      <c r="D290" t="n">
         <v>31</v>
       </c>
-      <c r="E290">
+      <c r="E290" t="n">
         <v>19</v>
       </c>
-      <c r="F290">
+      <c r="F290" t="n">
         <v>14</v>
       </c>
-      <c r="G290">
+      <c r="G290" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291">
       <c r="A291" t="s">
         <v>13</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
       </c>
-      <c r="D291">
+      <c r="C291"/>
+      <c r="D291" t="n">
         <v>32</v>
       </c>
-      <c r="E291">
-        <v>12</v>
-      </c>
-      <c r="F291">
-        <v>9</v>
-      </c>
-      <c r="G291">
+      <c r="E291" t="n">
+        <v>12</v>
+      </c>
+      <c r="F291" t="n">
+        <v>9</v>
+      </c>
+      <c r="G291" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292">
       <c r="A292" t="s">
         <v>13</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
       </c>
-      <c r="D292">
+      <c r="C292"/>
+      <c r="D292" t="n">
         <v>33</v>
       </c>
-      <c r="E292">
+      <c r="E292" t="n">
         <v>18</v>
       </c>
-      <c r="F292">
+      <c r="F292" t="n">
         <v>11</v>
       </c>
-      <c r="G292">
+      <c r="G292" t="n">
         <v>21.5</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293">
       <c r="A293" t="s">
         <v>13</v>
       </c>
       <c r="B293" t="s">
         <v>9</v>
       </c>
-      <c r="D293">
+      <c r="C293"/>
+      <c r="D293" t="n">
         <v>34</v>
       </c>
-      <c r="E293">
+      <c r="E293" t="n">
         <v>15</v>
       </c>
-      <c r="F293">
-        <v>13</v>
-      </c>
-      <c r="G293">
+      <c r="F293" t="n">
+        <v>13</v>
+      </c>
+      <c r="G293" t="n">
         <v>17.5</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294">
       <c r="A294" t="s">
         <v>13</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
       </c>
-      <c r="D294">
+      <c r="C294"/>
+      <c r="D294" t="n">
         <v>35</v>
       </c>
-      <c r="E294">
-        <v>12</v>
-      </c>
-      <c r="F294">
+      <c r="E294" t="n">
+        <v>12</v>
+      </c>
+      <c r="F294" t="n">
         <v>7.5</v>
       </c>
-      <c r="G294">
+      <c r="G294" t="n">
         <v>20.5</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295">
       <c r="A295" t="s">
         <v>13</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
       </c>
-      <c r="D295">
+      <c r="C295"/>
+      <c r="D295" t="n">
         <v>36</v>
       </c>
-      <c r="E295">
-        <v>10</v>
-      </c>
-      <c r="F295">
+      <c r="E295" t="n">
+        <v>10</v>
+      </c>
+      <c r="F295" t="n">
         <v>7.5</v>
       </c>
-      <c r="G295">
+      <c r="G295" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296">
       <c r="A296" t="s">
         <v>13</v>
       </c>
       <c r="B296" t="s">
         <v>9</v>
       </c>
-      <c r="D296">
+      <c r="C296"/>
+      <c r="D296" t="n">
         <v>37</v>
       </c>
-      <c r="E296">
+      <c r="E296" t="n">
         <v>11</v>
       </c>
-      <c r="F296">
+      <c r="F296" t="n">
         <v>6</v>
       </c>
-      <c r="G296">
+      <c r="G296" t="n">
         <v>15.5</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297">
       <c r="A297" t="s">
         <v>13</v>
       </c>
       <c r="B297" t="s">
         <v>9</v>
       </c>
-      <c r="D297">
+      <c r="C297"/>
+      <c r="D297" t="n">
         <v>38</v>
       </c>
-      <c r="E297">
-        <v>12</v>
-      </c>
-      <c r="F297">
+      <c r="E297" t="n">
+        <v>12</v>
+      </c>
+      <c r="F297" t="n">
         <v>11.5</v>
       </c>
-      <c r="G297">
+      <c r="G297" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298">
       <c r="A298" t="s">
         <v>13</v>
       </c>
       <c r="B298" t="s">
         <v>9</v>
       </c>
-      <c r="D298">
+      <c r="C298"/>
+      <c r="D298" t="n">
         <v>39</v>
       </c>
-      <c r="E298">
-        <v>13</v>
-      </c>
-      <c r="F298">
+      <c r="E298" t="n">
+        <v>13</v>
+      </c>
+      <c r="F298" t="n">
         <v>10.5</v>
       </c>
-      <c r="G298">
+      <c r="G298" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299">
       <c r="A299" t="s">
         <v>13</v>
       </c>
       <c r="B299" t="s">
         <v>9</v>
       </c>
-      <c r="D299">
+      <c r="C299"/>
+      <c r="D299" t="n">
         <v>40</v>
       </c>
-      <c r="E299">
-        <v>13</v>
-      </c>
-      <c r="F299">
+      <c r="E299" t="n">
+        <v>13</v>
+      </c>
+      <c r="F299" t="n">
         <v>12.5</v>
       </c>
-      <c r="G299">
+      <c r="G299" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300">
       <c r="A300" t="s">
         <v>13</v>
       </c>
       <c r="B300" t="s">
         <v>9</v>
       </c>
-      <c r="D300">
+      <c r="C300"/>
+      <c r="D300" t="n">
         <v>41</v>
       </c>
-      <c r="E300">
+      <c r="E300" t="n">
         <v>17</v>
       </c>
-      <c r="F300">
+      <c r="F300" t="n">
         <v>12.5</v>
       </c>
-      <c r="G300">
+      <c r="G300" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301">
       <c r="A301" t="s">
         <v>13</v>
       </c>
       <c r="B301" t="s">
         <v>9</v>
       </c>
-      <c r="D301">
+      <c r="C301"/>
+      <c r="D301" t="n">
         <v>42</v>
       </c>
-      <c r="E301">
-        <v>13</v>
-      </c>
-      <c r="F301">
-        <v>9</v>
-      </c>
-      <c r="G301">
+      <c r="E301" t="n">
+        <v>13</v>
+      </c>
+      <c r="F301" t="n">
+        <v>9</v>
+      </c>
+      <c r="G301" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302">
       <c r="A302" t="s">
         <v>13</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
       </c>
-      <c r="D302">
+      <c r="C302"/>
+      <c r="D302" t="n">
         <v>43</v>
       </c>
-      <c r="E302">
-        <v>12</v>
-      </c>
-      <c r="F302">
+      <c r="E302" t="n">
+        <v>12</v>
+      </c>
+      <c r="F302" t="n">
         <v>9.5</v>
       </c>
-      <c r="G302">
+      <c r="G302" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303">
       <c r="A303" t="s">
         <v>13</v>
       </c>
       <c r="B303" t="s">
         <v>9</v>
       </c>
-      <c r="D303">
+      <c r="C303"/>
+      <c r="D303" t="n">
         <v>44</v>
       </c>
-      <c r="E303">
+      <c r="E303" t="n">
         <v>15</v>
       </c>
-      <c r="F303">
-        <v>10</v>
-      </c>
-      <c r="G303">
+      <c r="F303" t="n">
+        <v>10</v>
+      </c>
+      <c r="G303" t="n">
         <v>25.5</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304">
       <c r="A304" t="s">
         <v>13</v>
       </c>
       <c r="B304" t="s">
         <v>9</v>
       </c>
-      <c r="D304">
+      <c r="C304"/>
+      <c r="D304" t="n">
         <v>45</v>
       </c>
-      <c r="E304">
+      <c r="E304" t="n">
         <v>11</v>
       </c>
-      <c r="F304">
+      <c r="F304" t="n">
         <v>7</v>
       </c>
-      <c r="G304">
+      <c r="G304" t="n">
         <v>25.5</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305">
       <c r="A305" t="s">
         <v>13</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
       </c>
-      <c r="D305">
+      <c r="C305"/>
+      <c r="D305" t="n">
         <v>46</v>
       </c>
-      <c r="E305">
-        <v>10</v>
-      </c>
-      <c r="F305">
-        <v>8</v>
-      </c>
-      <c r="G305">
+      <c r="E305" t="n">
+        <v>10</v>
+      </c>
+      <c r="F305" t="n">
+        <v>8</v>
+      </c>
+      <c r="G305" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306">
       <c r="A306" t="s">
         <v>13</v>
       </c>
       <c r="B306" t="s">
         <v>9</v>
       </c>
-      <c r="D306">
+      <c r="C306"/>
+      <c r="D306" t="n">
         <v>47</v>
       </c>
-      <c r="E306">
-        <v>12</v>
-      </c>
-      <c r="F306">
-        <v>12</v>
-      </c>
-      <c r="G306">
+      <c r="E306" t="n">
+        <v>12</v>
+      </c>
+      <c r="F306" t="n">
+        <v>12</v>
+      </c>
+      <c r="G306" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307">
       <c r="A307" t="s">
         <v>13</v>
       </c>
       <c r="B307" t="s">
         <v>9</v>
       </c>
-      <c r="D307">
+      <c r="C307"/>
+      <c r="D307" t="n">
         <v>48</v>
       </c>
-      <c r="E307">
+      <c r="E307" t="n">
         <v>14</v>
       </c>
-      <c r="F307">
-        <v>10</v>
-      </c>
-      <c r="G307">
+      <c r="F307" t="n">
+        <v>10</v>
+      </c>
+      <c r="G307" t="n">
         <v>17.5</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308">
       <c r="A308" t="s">
         <v>13</v>
       </c>
       <c r="B308" t="s">
         <v>9</v>
       </c>
-      <c r="D308">
+      <c r="C308"/>
+      <c r="D308" t="n">
         <v>49</v>
       </c>
-      <c r="E308">
+      <c r="E308" t="n">
         <v>14</v>
       </c>
-      <c r="F308">
+      <c r="F308" t="n">
         <v>8.5</v>
       </c>
-      <c r="G308">
+      <c r="G308" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309">
       <c r="A309" t="s">
         <v>13</v>
       </c>
       <c r="B309" t="s">
         <v>9</v>
       </c>
-      <c r="D309">
+      <c r="C309"/>
+      <c r="D309" t="n">
         <v>50</v>
       </c>
-      <c r="E309">
+      <c r="E309" t="n">
         <v>18</v>
       </c>
-      <c r="F309">
-        <v>13</v>
-      </c>
-      <c r="G309">
+      <c r="F309" t="n">
+        <v>13</v>
+      </c>
+      <c r="G309" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310">
       <c r="A310" t="s">
         <v>13</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
       </c>
-      <c r="D310">
+      <c r="C310"/>
+      <c r="D310" t="n">
         <v>51</v>
       </c>
-      <c r="E310">
-        <v>9</v>
-      </c>
-      <c r="F310">
+      <c r="E310" t="n">
+        <v>9</v>
+      </c>
+      <c r="F310" t="n">
         <v>8.5</v>
       </c>
-      <c r="G310">
+      <c r="G310" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311">
       <c r="A311" t="s">
         <v>13</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
       </c>
-      <c r="D311">
+      <c r="C311"/>
+      <c r="D311" t="n">
         <v>52</v>
       </c>
-      <c r="E311">
+      <c r="E311" t="n">
         <v>7</v>
       </c>
-      <c r="F311">
+      <c r="F311" t="n">
         <v>5</v>
       </c>
-      <c r="G311">
+      <c r="G311" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312">
       <c r="A312" t="s">
         <v>13</v>
       </c>
       <c r="B312" t="s">
         <v>9</v>
       </c>
-      <c r="D312">
+      <c r="C312"/>
+      <c r="D312" t="n">
         <v>53</v>
       </c>
-      <c r="E312">
+      <c r="E312" t="n">
         <v>1</v>
       </c>
-      <c r="F312">
+      <c r="F312" t="n">
         <v>1</v>
       </c>
-      <c r="G312">
+      <c r="G312" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313">
       <c r="A313" t="s">
         <v>13</v>
       </c>
       <c r="B313" t="s">
         <v>10</v>
       </c>
-      <c r="D313">
+      <c r="C313"/>
+      <c r="D313" t="n">
         <v>1</v>
       </c>
-      <c r="E313">
+      <c r="E313" t="n">
         <v>39</v>
       </c>
-      <c r="F313">
+      <c r="F313" t="n">
         <v>39</v>
       </c>
-      <c r="G313">
+      <c r="G313" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314">
       <c r="A314" t="s">
         <v>13</v>
       </c>
       <c r="B314" t="s">
         <v>10</v>
       </c>
-      <c r="D314">
+      <c r="C314"/>
+      <c r="D314" t="n">
         <v>2</v>
       </c>
-      <c r="E314">
+      <c r="E314" t="n">
         <v>72</v>
       </c>
-      <c r="F314">
+      <c r="F314" t="n">
         <v>72</v>
       </c>
-      <c r="G314">
+      <c r="G314" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315">
       <c r="A315" t="s">
         <v>13</v>
       </c>
       <c r="B315" t="s">
         <v>10</v>
       </c>
-      <c r="D315">
+      <c r="C315"/>
+      <c r="D315" t="n">
         <v>3</v>
       </c>
-      <c r="E315">
+      <c r="E315" t="n">
         <v>80</v>
       </c>
-      <c r="F315">
+      <c r="F315" t="n">
         <v>80</v>
       </c>
-      <c r="G315">
+      <c r="G315" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316">
       <c r="A316" t="s">
         <v>13</v>
       </c>
       <c r="B316" t="s">
         <v>10</v>
       </c>
-      <c r="D316">
+      <c r="C316"/>
+      <c r="D316" t="n">
         <v>4</v>
       </c>
-      <c r="E316">
+      <c r="E316" t="n">
         <v>97</v>
       </c>
-      <c r="F316">
+      <c r="F316" t="n">
         <v>97</v>
       </c>
-      <c r="G316">
+      <c r="G316" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317">
       <c r="A317" t="s">
         <v>13</v>
       </c>
       <c r="B317" t="s">
         <v>10</v>
       </c>
-      <c r="D317">
+      <c r="C317"/>
+      <c r="D317" t="n">
         <v>5</v>
       </c>
-      <c r="E317">
+      <c r="E317" t="n">
         <v>84</v>
       </c>
-      <c r="F317">
+      <c r="F317" t="n">
         <v>84</v>
       </c>
-      <c r="G317">
+      <c r="G317" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318">
       <c r="A318" t="s">
         <v>13</v>
       </c>
       <c r="B318" t="s">
         <v>10</v>
       </c>
-      <c r="D318">
+      <c r="C318"/>
+      <c r="D318" t="n">
         <v>6</v>
       </c>
-      <c r="E318">
+      <c r="E318" t="n">
         <v>86</v>
       </c>
-      <c r="F318">
+      <c r="F318" t="n">
         <v>86</v>
       </c>
-      <c r="G318">
+      <c r="G318" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319">
       <c r="A319" t="s">
         <v>13</v>
       </c>
       <c r="B319" t="s">
         <v>10</v>
       </c>
-      <c r="D319">
+      <c r="C319"/>
+      <c r="D319" t="n">
         <v>7</v>
       </c>
-      <c r="E319">
+      <c r="E319" t="n">
         <v>73</v>
       </c>
-      <c r="F319">
+      <c r="F319" t="n">
         <v>73</v>
       </c>
-      <c r="G319">
+      <c r="G319" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320">
       <c r="A320" t="s">
         <v>13</v>
       </c>
       <c r="B320" t="s">
         <v>10</v>
       </c>
-      <c r="D320">
-        <v>8</v>
-      </c>
-      <c r="E320">
+      <c r="C320"/>
+      <c r="D320" t="n">
+        <v>8</v>
+      </c>
+      <c r="E320" t="n">
         <v>64</v>
       </c>
-      <c r="F320">
+      <c r="F320" t="n">
         <v>64</v>
       </c>
-      <c r="G320">
+      <c r="G320" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321">
       <c r="A321" t="s">
         <v>13</v>
       </c>
       <c r="B321" t="s">
         <v>10</v>
       </c>
-      <c r="D321">
-        <v>9</v>
-      </c>
-      <c r="E321">
+      <c r="C321"/>
+      <c r="D321" t="n">
+        <v>9</v>
+      </c>
+      <c r="E321" t="n">
         <v>80</v>
       </c>
-      <c r="F321">
+      <c r="F321" t="n">
         <v>80</v>
       </c>
-      <c r="G321">
+      <c r="G321" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322">
       <c r="A322" t="s">
         <v>13</v>
       </c>
       <c r="B322" t="s">
         <v>10</v>
       </c>
-      <c r="D322">
-        <v>10</v>
-      </c>
-      <c r="E322">
+      <c r="C322"/>
+      <c r="D322" t="n">
+        <v>10</v>
+      </c>
+      <c r="E322" t="n">
         <v>89</v>
       </c>
-      <c r="F322">
+      <c r="F322" t="n">
         <v>89</v>
       </c>
-      <c r="G322">
+      <c r="G322" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323">
       <c r="A323" t="s">
         <v>13</v>
       </c>
       <c r="B323" t="s">
         <v>10</v>
       </c>
-      <c r="D323">
+      <c r="C323"/>
+      <c r="D323" t="n">
         <v>26</v>
       </c>
-      <c r="E323">
+      <c r="E323" t="n">
         <v>34</v>
       </c>
-      <c r="F323">
+      <c r="F323" t="n">
         <v>34</v>
       </c>
-      <c r="G323">
+      <c r="G323" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324">
       <c r="A324" t="s">
         <v>13</v>
       </c>
       <c r="B324" t="s">
         <v>10</v>
       </c>
-      <c r="D324">
+      <c r="C324"/>
+      <c r="D324" t="n">
         <v>27</v>
       </c>
-      <c r="E324">
+      <c r="E324" t="n">
         <v>31</v>
       </c>
-      <c r="F324">
+      <c r="F324" t="n">
         <v>31</v>
       </c>
-      <c r="G324">
+      <c r="G324" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325">
       <c r="A325" t="s">
         <v>13</v>
       </c>
       <c r="B325" t="s">
         <v>10</v>
       </c>
-      <c r="D325">
+      <c r="C325"/>
+      <c r="D325" t="n">
         <v>28</v>
       </c>
-      <c r="E325">
+      <c r="E325" t="n">
         <v>40</v>
       </c>
-      <c r="F325">
+      <c r="F325" t="n">
         <v>40</v>
       </c>
-      <c r="G325">
+      <c r="G325" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326">
       <c r="A326" t="s">
         <v>13</v>
       </c>
       <c r="B326" t="s">
         <v>10</v>
       </c>
-      <c r="D326">
+      <c r="C326"/>
+      <c r="D326" t="n">
         <v>29</v>
       </c>
-      <c r="E326">
+      <c r="E326" t="n">
         <v>56</v>
       </c>
-      <c r="F326">
+      <c r="F326" t="n">
         <v>56</v>
       </c>
-      <c r="G326">
+      <c r="G326" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327">
       <c r="A327" t="s">
         <v>13</v>
       </c>
       <c r="B327" t="s">
         <v>10</v>
       </c>
-      <c r="D327">
+      <c r="C327"/>
+      <c r="D327" t="n">
         <v>30</v>
       </c>
-      <c r="E327">
+      <c r="E327" t="n">
         <v>38</v>
       </c>
-      <c r="F327">
+      <c r="F327" t="n">
         <v>38</v>
       </c>
-      <c r="G327">
+      <c r="G327" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328">
       <c r="A328" t="s">
         <v>13</v>
       </c>
       <c r="B328" t="s">
         <v>10</v>
       </c>
-      <c r="D328">
+      <c r="C328"/>
+      <c r="D328" t="n">
         <v>31</v>
       </c>
-      <c r="E328">
+      <c r="E328" t="n">
         <v>58</v>
       </c>
-      <c r="F328">
+      <c r="F328" t="n">
         <v>58</v>
       </c>
-      <c r="G328">
+      <c r="G328" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329">
       <c r="A329" t="s">
         <v>13</v>
       </c>
       <c r="B329" t="s">
         <v>10</v>
       </c>
-      <c r="D329">
+      <c r="C329"/>
+      <c r="D329" t="n">
         <v>32</v>
       </c>
-      <c r="E329">
+      <c r="E329" t="n">
         <v>40</v>
       </c>
-      <c r="F329">
+      <c r="F329" t="n">
         <v>40</v>
       </c>
-      <c r="G329">
+      <c r="G329" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330">
       <c r="A330" t="s">
         <v>13</v>
       </c>
       <c r="B330" t="s">
         <v>10</v>
       </c>
-      <c r="D330">
+      <c r="C330"/>
+      <c r="D330" t="n">
         <v>33</v>
       </c>
-      <c r="E330">
+      <c r="E330" t="n">
         <v>34</v>
       </c>
-      <c r="F330">
+      <c r="F330" t="n">
         <v>34</v>
       </c>
-      <c r="G330">
+      <c r="G330" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331">
       <c r="A331" t="s">
         <v>13</v>
       </c>
       <c r="B331" t="s">
         <v>10</v>
       </c>
-      <c r="D331">
+      <c r="C331"/>
+      <c r="D331" t="n">
         <v>34</v>
       </c>
-      <c r="E331">
+      <c r="E331" t="n">
         <v>27</v>
       </c>
-      <c r="F331">
+      <c r="F331" t="n">
         <v>27</v>
       </c>
-      <c r="G331">
+      <c r="G331" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332">
       <c r="A332" t="s">
         <v>13</v>
       </c>
       <c r="B332" t="s">
         <v>10</v>
       </c>
-      <c r="D332">
+      <c r="C332"/>
+      <c r="D332" t="n">
         <v>35</v>
       </c>
-      <c r="E332">
+      <c r="E332" t="n">
         <v>48</v>
       </c>
-      <c r="F332">
+      <c r="F332" t="n">
         <v>48</v>
       </c>
-      <c r="G332">
+      <c r="G332" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333">
       <c r="A333" t="s">
         <v>13</v>
       </c>
       <c r="B333" t="s">
         <v>10</v>
       </c>
-      <c r="D333">
+      <c r="C333"/>
+      <c r="D333" t="n">
         <v>36</v>
       </c>
-      <c r="E333">
+      <c r="E333" t="n">
         <v>38</v>
       </c>
-      <c r="F333">
+      <c r="F333" t="n">
         <v>38</v>
       </c>
-      <c r="G333">
+      <c r="G333" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334">
       <c r="A334" t="s">
         <v>13</v>
       </c>
       <c r="B334" t="s">
         <v>10</v>
       </c>
-      <c r="D334">
+      <c r="C334"/>
+      <c r="D334" t="n">
         <v>37</v>
       </c>
-      <c r="E334">
+      <c r="E334" t="n">
         <v>28</v>
       </c>
-      <c r="F334">
+      <c r="F334" t="n">
         <v>28</v>
       </c>
-      <c r="G334">
+      <c r="G334" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335">
       <c r="A335" t="s">
         <v>13</v>
       </c>
       <c r="B335" t="s">
         <v>10</v>
       </c>
-      <c r="D335">
+      <c r="C335"/>
+      <c r="D335" t="n">
         <v>38</v>
       </c>
-      <c r="E335">
+      <c r="E335" t="n">
         <v>42</v>
       </c>
-      <c r="F335">
+      <c r="F335" t="n">
         <v>42</v>
       </c>
-      <c r="G335">
+      <c r="G335" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336">
       <c r="A336" t="s">
         <v>13</v>
       </c>
       <c r="B336" t="s">
         <v>10</v>
       </c>
-      <c r="D336">
+      <c r="C336"/>
+      <c r="D336" t="n">
         <v>39</v>
       </c>
-      <c r="E336">
+      <c r="E336" t="n">
         <v>40</v>
       </c>
-      <c r="F336">
+      <c r="F336" t="n">
         <v>40</v>
       </c>
-      <c r="G336">
+      <c r="G336" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337">
       <c r="A337" t="s">
         <v>13</v>
       </c>
       <c r="B337" t="s">
         <v>10</v>
       </c>
-      <c r="D337">
+      <c r="C337"/>
+      <c r="D337" t="n">
         <v>40</v>
       </c>
-      <c r="E337">
+      <c r="E337" t="n">
         <v>46</v>
       </c>
-      <c r="F337">
+      <c r="F337" t="n">
         <v>46</v>
       </c>
-      <c r="G337">
+      <c r="G337" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338">
       <c r="A338" t="s">
         <v>13</v>
       </c>
       <c r="B338" t="s">
         <v>10</v>
       </c>
-      <c r="D338">
+      <c r="C338"/>
+      <c r="D338" t="n">
         <v>41</v>
       </c>
-      <c r="E338">
+      <c r="E338" t="n">
         <v>37</v>
       </c>
-      <c r="F338">
+      <c r="F338" t="n">
         <v>37</v>
       </c>
-      <c r="G338">
+      <c r="G338" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339">
       <c r="A339" t="s">
         <v>13</v>
       </c>
       <c r="B339" t="s">
         <v>10</v>
       </c>
-      <c r="D339">
+      <c r="C339"/>
+      <c r="D339" t="n">
         <v>42</v>
       </c>
-      <c r="E339">
+      <c r="E339" t="n">
         <v>40</v>
       </c>
-      <c r="F339">
+      <c r="F339" t="n">
         <v>40</v>
       </c>
-      <c r="G339">
+      <c r="G339" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340">
       <c r="A340" t="s">
         <v>13</v>
       </c>
       <c r="B340" t="s">
         <v>10</v>
       </c>
-      <c r="D340">
+      <c r="C340"/>
+      <c r="D340" t="n">
         <v>43</v>
       </c>
-      <c r="E340">
+      <c r="E340" t="n">
         <v>65</v>
       </c>
-      <c r="F340">
+      <c r="F340" t="n">
         <v>65</v>
       </c>
-      <c r="G340">
+      <c r="G340" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341">
       <c r="A341" t="s">
         <v>13</v>
       </c>
       <c r="B341" t="s">
         <v>10</v>
       </c>
-      <c r="D341">
+      <c r="C341"/>
+      <c r="D341" t="n">
         <v>44</v>
       </c>
-      <c r="E341">
+      <c r="E341" t="n">
         <v>62</v>
       </c>
-      <c r="F341">
+      <c r="F341" t="n">
         <v>62</v>
       </c>
-      <c r="G341">
+      <c r="G341" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342">
       <c r="A342" t="s">
         <v>13</v>
       </c>
       <c r="B342" t="s">
         <v>10</v>
       </c>
-      <c r="D342">
+      <c r="C342"/>
+      <c r="D342" t="n">
         <v>45</v>
       </c>
-      <c r="E342">
+      <c r="E342" t="n">
         <v>100</v>
       </c>
-      <c r="F342">
+      <c r="F342" t="n">
         <v>100</v>
       </c>
-      <c r="G342">
+      <c r="G342" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343">
       <c r="A343" t="s">
         <v>13</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
       </c>
-      <c r="D343">
+      <c r="C343"/>
+      <c r="D343" t="n">
         <v>46</v>
       </c>
-      <c r="E343">
+      <c r="E343" t="n">
         <v>91</v>
       </c>
-      <c r="F343">
+      <c r="F343" t="n">
         <v>91</v>
       </c>
-      <c r="G343">
+      <c r="G343" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344">
       <c r="A344" t="s">
         <v>13</v>
       </c>
       <c r="B344" t="s">
         <v>10</v>
       </c>
-      <c r="D344">
+      <c r="C344"/>
+      <c r="D344" t="n">
         <v>47</v>
       </c>
-      <c r="E344">
+      <c r="E344" t="n">
         <v>55</v>
       </c>
-      <c r="F344">
+      <c r="F344" t="n">
         <v>55</v>
       </c>
-      <c r="G344">
+      <c r="G344" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345">
       <c r="A345" t="s">
         <v>13</v>
       </c>
       <c r="B345" t="s">
         <v>10</v>
       </c>
-      <c r="D345">
+      <c r="C345"/>
+      <c r="D345" t="n">
         <v>48</v>
       </c>
-      <c r="E345">
+      <c r="E345" t="n">
         <v>90</v>
       </c>
-      <c r="F345">
+      <c r="F345" t="n">
         <v>90</v>
       </c>
-      <c r="G345">
+      <c r="G345" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346">
       <c r="A346" t="s">
         <v>13</v>
       </c>
       <c r="B346" t="s">
         <v>10</v>
       </c>
-      <c r="D346">
+      <c r="C346"/>
+      <c r="D346" t="n">
         <v>49</v>
       </c>
-      <c r="E346">
+      <c r="E346" t="n">
         <v>105</v>
       </c>
-      <c r="F346">
+      <c r="F346" t="n">
         <v>105</v>
       </c>
-      <c r="G346">
+      <c r="G346" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347">
       <c r="A347" t="s">
         <v>13</v>
       </c>
       <c r="B347" t="s">
         <v>10</v>
       </c>
-      <c r="D347">
+      <c r="C347"/>
+      <c r="D347" t="n">
         <v>50</v>
       </c>
-      <c r="E347">
+      <c r="E347" t="n">
         <v>137</v>
       </c>
-      <c r="F347">
+      <c r="F347" t="n">
         <v>137</v>
       </c>
-      <c r="G347">
+      <c r="G347" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348">
       <c r="A348" t="s">
         <v>13</v>
       </c>
       <c r="B348" t="s">
         <v>10</v>
       </c>
-      <c r="D348">
+      <c r="C348"/>
+      <c r="D348" t="n">
         <v>51</v>
       </c>
-      <c r="E348">
+      <c r="E348" t="n">
         <v>128</v>
       </c>
-      <c r="F348">
+      <c r="F348" t="n">
         <v>128</v>
       </c>
-      <c r="G348">
+      <c r="G348" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349">
       <c r="A349" t="s">
         <v>13</v>
       </c>
       <c r="B349" t="s">
         <v>10</v>
       </c>
-      <c r="D349">
+      <c r="C349"/>
+      <c r="D349" t="n">
         <v>52</v>
       </c>
-      <c r="E349">
+      <c r="E349" t="n">
         <v>5</v>
       </c>
-      <c r="F349">
+      <c r="F349" t="n">
         <v>5</v>
       </c>
-      <c r="G349">
+      <c r="G349" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>